--- a/Scheme/Smeta.xlsx
+++ b/Scheme/Smeta.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dropbox\Develop\Projects\UA3REO\Scheme\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Develop\Projects\UA3REO\Scheme\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="61">
   <si>
     <t>Наименование</t>
   </si>
@@ -192,6 +192,21 @@
   </si>
   <si>
     <t>https://ru.aliexpress.com/item/RS485-communication-module-sound-detector-sound-level-scoring-shell-instrument-noise-sensor-WST60M/32827169756.html</t>
+  </si>
+  <si>
+    <t>Плата ЦАП</t>
+  </si>
+  <si>
+    <t>DAC904E</t>
+  </si>
+  <si>
+    <t>https://ru.aliexpress.com/item/DAC904E-DAC902E-DAC900E-DAC908E-2-SMD/32864490960.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Резистор 2к 0805 </t>
+  </si>
+  <si>
+    <t>Конденсатор 1мкф</t>
   </si>
 </sst>
 </file>
@@ -569,10 +584,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F49"/>
+  <dimension ref="B2:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -636,7 +651,7 @@
         <v>182.11</v>
       </c>
       <c r="E5" s="7">
-        <f t="shared" ref="E5:E47" si="0">C5*D5</f>
+        <f t="shared" ref="E5:E55" si="0">C5*D5</f>
         <v>182.11</v>
       </c>
     </row>
@@ -790,7 +805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
         <v>11</v>
       </c>
@@ -806,7 +821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
         <v>15</v>
       </c>
@@ -822,417 +837,534 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="C20" s="5">
         <v>1</v>
       </c>
       <c r="D20" s="7">
-        <v>145</v>
+        <v>67.5</v>
       </c>
       <c r="E20" s="7">
         <f t="shared" si="0"/>
-        <v>145</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+        <v>67.5</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="5">
+        <v>1</v>
+      </c>
+      <c r="D21" s="7">
+        <f>5/10</f>
+        <v>0.5</v>
+      </c>
+      <c r="E21" s="7">
+        <f>C21*D21</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="C22" s="5">
         <v>1</v>
       </c>
       <c r="D22" s="7">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E22" s="7">
         <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="C23" s="5">
         <v>1</v>
       </c>
       <c r="D23" s="7">
-        <v>17</v>
+        <f>7/5</f>
+        <v>1.4</v>
       </c>
       <c r="E23" s="7">
         <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="C24" s="5">
         <v>2</v>
       </c>
       <c r="D24" s="7">
-        <v>17</v>
-      </c>
-      <c r="E24" s="7">
-        <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26" s="5">
-        <v>5</v>
-      </c>
-      <c r="D26" s="7">
         <f>7/5</f>
         <v>1.4</v>
       </c>
-      <c r="E26" s="7">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C27" s="5">
-        <v>1</v>
-      </c>
-      <c r="D27" s="7">
-        <v>6</v>
-      </c>
-      <c r="E27" s="7">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C28" s="5">
-        <v>1</v>
-      </c>
-      <c r="D28" s="7">
-        <v>12</v>
-      </c>
-      <c r="E28" s="7">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C29" s="5">
+      <c r="E24" s="7">
+        <f t="shared" si="0"/>
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="5">
         <v>4</v>
       </c>
-      <c r="D29" s="7">
+      <c r="D25" s="7">
         <f>7/5</f>
         <v>1.4</v>
       </c>
-      <c r="E29" s="7">
-        <f t="shared" si="0"/>
+      <c r="E25" s="7">
+        <f>C25*D25</f>
         <v>5.6</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="5">
+        <v>2</v>
+      </c>
+      <c r="D26" s="7">
+        <v>6</v>
+      </c>
+      <c r="E26" s="7">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B28" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" s="5">
+        <v>1</v>
+      </c>
+      <c r="D28" s="7">
+        <v>145</v>
+      </c>
+      <c r="E28" s="7">
+        <f t="shared" si="0"/>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B29" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30" s="3" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="C30" s="5">
+        <v>1</v>
+      </c>
+      <c r="D30" s="7">
+        <v>17</v>
+      </c>
+      <c r="E30" s="7">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B31" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" s="5">
+        <v>1</v>
+      </c>
+      <c r="D31" s="7">
+        <v>17</v>
+      </c>
+      <c r="E31" s="7">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B32" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32" s="5">
         <v>2</v>
       </c>
-      <c r="D30" s="7">
+      <c r="D32" s="7">
+        <v>17</v>
+      </c>
+      <c r="E32" s="7">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B34" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" s="5">
+        <v>5</v>
+      </c>
+      <c r="D34" s="7">
         <f>7/5</f>
         <v>1.4</v>
       </c>
-      <c r="E30" s="7">
+      <c r="E34" s="7">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B35" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" s="5">
+        <v>1</v>
+      </c>
+      <c r="D35" s="7">
+        <v>6</v>
+      </c>
+      <c r="E35" s="7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B36" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" s="5">
+        <v>1</v>
+      </c>
+      <c r="D36" s="7">
+        <v>12</v>
+      </c>
+      <c r="E36" s="7">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B37" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37" s="5">
+        <v>4</v>
+      </c>
+      <c r="D37" s="7">
+        <f>7/5</f>
+        <v>1.4</v>
+      </c>
+      <c r="E37" s="7">
+        <f t="shared" si="0"/>
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B38" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38" s="5">
+        <v>2</v>
+      </c>
+      <c r="D38" s="7">
+        <f>7/5</f>
+        <v>1.4</v>
+      </c>
+      <c r="E38" s="7">
         <f t="shared" si="0"/>
         <v>2.8</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="3" t="s">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B39" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="5">
+      <c r="C39" s="5">
         <v>2</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D39" s="7">
         <v>0.9</v>
       </c>
-      <c r="E31" s="7">
+      <c r="E39" s="7">
         <f t="shared" si="0"/>
         <v>1.8</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="3" t="s">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B40" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C32" s="5">
-        <v>1</v>
-      </c>
-      <c r="D32" s="7">
+      <c r="C40" s="5">
+        <v>1</v>
+      </c>
+      <c r="D40" s="7">
         <f>5/10</f>
         <v>0.5</v>
       </c>
-      <c r="E32" s="7">
+      <c r="E40" s="7">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33" s="3" t="s">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B41" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C33" s="5">
-        <v>1</v>
-      </c>
-      <c r="D33" s="7">
+      <c r="C41" s="5">
+        <v>1</v>
+      </c>
+      <c r="D41" s="7">
         <f>5/10</f>
         <v>0.5</v>
       </c>
-      <c r="E33" s="7">
+      <c r="E41" s="7">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B34" s="3" t="s">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B42" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C34" s="5">
-        <v>1</v>
-      </c>
-      <c r="D34" s="7">
+      <c r="C42" s="5">
+        <v>1</v>
+      </c>
+      <c r="D42" s="7">
         <v>0.9</v>
       </c>
-      <c r="E34" s="7">
+      <c r="E42" s="7">
         <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B35" s="3" t="s">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B43" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C35" s="5">
-        <v>1</v>
-      </c>
-      <c r="D35" s="7">
+      <c r="C43" s="5">
+        <v>1</v>
+      </c>
+      <c r="D43" s="7">
         <f>5/10</f>
         <v>0.5</v>
       </c>
-      <c r="E35" s="7">
+      <c r="E43" s="7">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B36" s="3" t="s">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B44" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C36" s="5">
-        <v>1</v>
-      </c>
-      <c r="D36" s="7">
+      <c r="C44" s="5">
+        <v>1</v>
+      </c>
+      <c r="D44" s="7">
         <f>5/10</f>
         <v>0.5</v>
       </c>
-      <c r="E36" s="7">
+      <c r="E44" s="7">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B37" s="3" t="s">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B45" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C37" s="5">
+      <c r="C45" s="5">
         <v>3</v>
       </c>
-      <c r="D37" s="7">
+      <c r="D45" s="7">
         <f>5/10</f>
         <v>0.5</v>
       </c>
-      <c r="E37" s="7">
+      <c r="E45" s="7">
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B38" s="3" t="s">
+    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B46" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C38" s="5">
-        <v>1</v>
-      </c>
-      <c r="D38" s="7">
+      <c r="C46" s="5">
+        <v>1</v>
+      </c>
+      <c r="D46" s="7">
         <v>8</v>
       </c>
-      <c r="E38" s="7">
+      <c r="E46" s="7">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B39" s="3" t="s">
+    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B47" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C39" s="5">
-        <v>1</v>
-      </c>
-      <c r="D39" s="7">
+      <c r="C47" s="5">
+        <v>1</v>
+      </c>
+      <c r="D47" s="7">
         <v>4</v>
       </c>
-      <c r="E39" s="7">
+      <c r="E47" s="7">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B40" s="3" t="s">
+    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B48" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C40" s="5">
-        <v>1</v>
-      </c>
-      <c r="D40" s="7">
+      <c r="C48" s="5">
+        <v>1</v>
+      </c>
+      <c r="D48" s="7">
         <f>129.2/10</f>
         <v>12.919999999999998</v>
       </c>
-      <c r="E40" s="7">
+      <c r="E48" s="7">
         <f t="shared" si="0"/>
         <v>12.919999999999998</v>
       </c>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B41" s="3" t="s">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B49" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C41" s="5">
+      <c r="C49" s="5">
         <v>2</v>
       </c>
-      <c r="D41" s="7">
+      <c r="D49" s="7">
         <v>11</v>
       </c>
-      <c r="E41" s="7">
+      <c r="E49" s="7">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B42" s="3" t="s">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B50" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C42" s="5">
+      <c r="C50" s="5">
         <v>4</v>
       </c>
-      <c r="D42" s="7">
+      <c r="D50" s="7">
         <v>6</v>
       </c>
-      <c r="E42" s="7">
+      <c r="E50" s="7">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B43" s="3" t="s">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B51" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C43" s="5">
-        <v>1</v>
-      </c>
-      <c r="D43" s="7">
+      <c r="C51" s="5">
+        <v>1</v>
+      </c>
+      <c r="D51" s="7">
         <v>150</v>
       </c>
-      <c r="E43" s="7">
+      <c r="E51" s="7">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B44" s="3" t="s">
+    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B52" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C44" s="5">
-        <v>1</v>
-      </c>
-      <c r="D44" s="7">
+      <c r="C52" s="5">
+        <v>1</v>
+      </c>
+      <c r="D52" s="7">
         <v>4</v>
       </c>
-      <c r="E44" s="7">
+      <c r="E52" s="7">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B45" s="3" t="s">
+    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B53" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C45" s="5">
-        <v>1</v>
-      </c>
-      <c r="D45" s="7">
+      <c r="C53" s="5">
+        <v>1</v>
+      </c>
+      <c r="D53" s="7">
         <v>46</v>
       </c>
-      <c r="E45" s="7">
+      <c r="E53" s="7">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B46" s="1" t="s">
+    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B54" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B47" s="3" t="s">
+    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B55" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C47" s="5">
-        <v>1</v>
-      </c>
-      <c r="D47" s="7">
+      <c r="C55" s="5">
+        <v>1</v>
+      </c>
+      <c r="D55" s="7">
         <v>79</v>
       </c>
-      <c r="E47" s="7">
+      <c r="E55" s="7">
         <f t="shared" si="0"/>
         <v>79</v>
       </c>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B49" s="8" t="s">
+    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B57" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E49" s="8">
-        <f>SUM(E3:E48)</f>
-        <v>7241.08</v>
+      <c r="E57" s="8">
+        <f>SUM(E3:E56)</f>
+        <v>7335.88</v>
       </c>
     </row>
   </sheetData>
@@ -1243,8 +1375,9 @@
     <hyperlink ref="F4" r:id="rId4"/>
     <hyperlink ref="F12" r:id="rId5"/>
     <hyperlink ref="F14" r:id="rId6"/>
+    <hyperlink ref="F20" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
--- a/Scheme/Smeta.xlsx
+++ b/Scheme/Smeta.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="73">
   <si>
     <t>Наименование</t>
   </si>
@@ -77,9 +77,6 @@
     <t>Питание</t>
   </si>
   <si>
-    <t>Плата предусилителя</t>
-  </si>
-  <si>
     <t>Транзистор BFG591</t>
   </si>
   <si>
@@ -98,12 +95,6 @@
     <t>Модуль PAM8403 ADJ УНЧ 2*3W 2,5-5V с регулятором</t>
   </si>
   <si>
-    <t>7812 TO220 12V 1,5A (КР142ЕН8Б)</t>
-  </si>
-  <si>
-    <t>7805 TO220 5V 1,5A (КР142ЕН5А)</t>
-  </si>
-  <si>
     <t>Стабилизатор LM1117S-ADJ D2PAK</t>
   </si>
   <si>
@@ -155,18 +146,12 @@
     <t xml:space="preserve">Резистор 470ом 0805 </t>
   </si>
   <si>
-    <t>Модуль энкодера KY-040</t>
-  </si>
-  <si>
     <t>Другое</t>
   </si>
   <si>
     <t>Гнездо PL на корпус фланец</t>
   </si>
   <si>
-    <t>Конденсатор 2200мкФ 25В</t>
-  </si>
-  <si>
     <t>Трансфлюктор М30ВН-6Тр 16*9*7</t>
   </si>
   <si>
@@ -207,6 +192,57 @@
   </si>
   <si>
     <t>Конденсатор 1мкф</t>
+  </si>
+  <si>
+    <t>Корпус РЭА №15-9 200*165*65</t>
+  </si>
+  <si>
+    <t>Плата УВЧ (Preamp)</t>
+  </si>
+  <si>
+    <t>https://ru.aliexpress.com/item/Free-Shipping-1pc-Incremental-rotary-encoder-600-lines/1280677743.html</t>
+  </si>
+  <si>
+    <t>Гнездо "Банан"</t>
+  </si>
+  <si>
+    <t>Штекер MIC 8pin</t>
+  </si>
+  <si>
+    <t>Кварц 12МГц HC-49US</t>
+  </si>
+  <si>
+    <t>Конденсатор 22пф</t>
+  </si>
+  <si>
+    <t>Гнездо питания 5,5*2,1</t>
+  </si>
+  <si>
+    <t>Мембранная клавиатура 1*4</t>
+  </si>
+  <si>
+    <t>Диод Шоттки SR860 (SB860) DO-201 60V 8A</t>
+  </si>
+  <si>
+    <t>DC-DC 4,0-38V -&gt; 1,25-36V 5A LM2596S-ADJ понижающий</t>
+  </si>
+  <si>
+    <t>Кнопка питания, с фиксацией PBS-16A 220М 1A</t>
+  </si>
+  <si>
+    <t>Оптический энкодер 600 позиций на оборот</t>
+  </si>
+  <si>
+    <t>Гнездо SMA на плату</t>
+  </si>
+  <si>
+    <t>Переключатель TX-RX</t>
+  </si>
+  <si>
+    <t>Модуль реле 1-канальный 5В 10A 250V/реле</t>
+  </si>
+  <si>
+    <t>SMA-SMA патч корд 6,5"</t>
   </si>
 </sst>
 </file>
@@ -584,16 +620,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F57"/>
+  <dimension ref="B2:F69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.140625" customWidth="1"/>
-    <col min="2" max="2" width="54.140625" customWidth="1"/>
+    <col min="2" max="2" width="54.28515625" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="5"/>
     <col min="4" max="4" width="11.28515625" style="7" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="7"/>
@@ -614,7 +650,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
@@ -637,7 +673,7 @@
         <v>2278.73</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
@@ -651,7 +687,7 @@
         <v>182.11</v>
       </c>
       <c r="E5" s="7">
-        <f t="shared" ref="E5:E55" si="0">C5*D5</f>
+        <f t="shared" ref="E5:E68" si="0">C5*D5</f>
         <v>182.11</v>
       </c>
     </row>
@@ -675,7 +711,7 @@
         <v>707.81</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
@@ -693,12 +729,12 @@
         <v>479.67</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" s="5">
         <v>1</v>
@@ -711,208 +747,210 @@
         <v>714.68</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" s="5">
-        <v>1</v>
-      </c>
-      <c r="D10" s="7">
-        <v>90</v>
-      </c>
-      <c r="E10" s="7">
-        <f t="shared" si="0"/>
-        <v>90</v>
+      <c r="B10" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
-        <v>7</v>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="5">
+        <v>1</v>
+      </c>
+      <c r="D11" s="7">
+        <v>933.21</v>
+      </c>
+      <c r="E11" s="7">
+        <f t="shared" si="0"/>
+        <v>933.21</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="C12" s="5">
         <v>1</v>
       </c>
       <c r="D12" s="7">
-        <v>933.21</v>
+        <v>10</v>
       </c>
       <c r="E12" s="7">
         <f t="shared" si="0"/>
-        <v>933.21</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>54</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="F12" s="10"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="5">
+        <v>2</v>
+      </c>
+      <c r="D13" s="7">
+        <f>7/5</f>
+        <v>1.4</v>
+      </c>
+      <c r="E13" s="7">
+        <f t="shared" si="0"/>
+        <v>2.8</v>
+      </c>
+      <c r="F13" s="10"/>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="5">
-        <v>1</v>
-      </c>
-      <c r="D14" s="7">
+      <c r="C15" s="5">
+        <v>1</v>
+      </c>
+      <c r="D15" s="7">
         <v>1236.95</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E15" s="7">
         <f t="shared" si="0"/>
         <v>1236.95</v>
       </c>
-      <c r="F14" s="10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15" s="5">
-        <v>1</v>
-      </c>
-      <c r="D15" s="7">
-        <v>12</v>
-      </c>
-      <c r="E15" s="7">
-        <f t="shared" si="0"/>
-        <v>12</v>
+      <c r="F15" s="10" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C16" s="5">
         <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E16" s="7">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="5">
+        <v>1</v>
+      </c>
+      <c r="D17" s="7">
+        <v>1</v>
+      </c>
+      <c r="E17" s="7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C18" s="5">
         <v>2</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D18" s="7">
         <f>5/10</f>
         <v>0.5</v>
       </c>
-      <c r="E17" s="7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="3" t="s">
+      <c r="E18" s="7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="5">
-        <v>1</v>
-      </c>
-      <c r="D18" s="7">
+      <c r="C19" s="5">
+        <v>1</v>
+      </c>
+      <c r="D19" s="7">
         <f>7/5</f>
         <v>1.4</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E19" s="7">
         <f t="shared" si="0"/>
         <v>1.4</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C20" s="5">
-        <v>1</v>
-      </c>
-      <c r="D20" s="7">
-        <v>67.5</v>
-      </c>
-      <c r="E20" s="7">
-        <f t="shared" si="0"/>
-        <v>67.5</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>58</v>
+      <c r="B20" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C21" s="5">
         <v>1</v>
       </c>
       <c r="D21" s="7">
+        <v>67.5</v>
+      </c>
+      <c r="E21" s="7">
+        <f t="shared" si="0"/>
+        <v>67.5</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="5">
+        <v>1</v>
+      </c>
+      <c r="D22" s="7">
         <f>5/10</f>
         <v>0.5</v>
       </c>
-      <c r="E21" s="7">
-        <f>C21*D21</f>
+      <c r="E22" s="7">
+        <f>C22*D22</f>
         <v>0.5</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C22" s="5">
-        <v>1</v>
-      </c>
-      <c r="D22" s="7">
-        <v>5</v>
-      </c>
-      <c r="E22" s="7">
-        <f t="shared" si="0"/>
-        <v>5</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="C23" s="5">
         <v>1</v>
       </c>
       <c r="D23" s="7">
-        <f>7/5</f>
-        <v>1.4</v>
+        <v>5</v>
       </c>
       <c r="E23" s="7">
         <f t="shared" si="0"/>
-        <v>1.4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C24" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D24" s="7">
         <f>7/5</f>
@@ -920,159 +958,160 @@
       </c>
       <c r="E24" s="7">
         <f t="shared" si="0"/>
-        <v>2.8</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C25" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D25" s="7">
         <f>7/5</f>
         <v>1.4</v>
       </c>
       <c r="E25" s="7">
-        <f>C25*D25</f>
-        <v>5.6</v>
+        <f t="shared" si="0"/>
+        <v>2.8</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C26" s="5">
+        <v>4</v>
+      </c>
+      <c r="D26" s="7">
+        <f>7/5</f>
+        <v>1.4</v>
+      </c>
+      <c r="E26" s="7">
+        <f>C26*D26</f>
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="5">
         <v>2</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D27" s="7">
         <v>6</v>
       </c>
-      <c r="E26" s="7">
+      <c r="E27" s="7">
         <f t="shared" si="0"/>
         <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" s="3" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="C28" s="5">
         <v>1</v>
       </c>
       <c r="D28" s="7">
-        <v>145</v>
+        <v>79</v>
       </c>
       <c r="E28" s="7">
         <f t="shared" si="0"/>
-        <v>145</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C30" s="5">
         <v>1</v>
       </c>
       <c r="D30" s="7">
-        <v>17</v>
+        <v>145</v>
       </c>
       <c r="E30" s="7">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>145</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B31" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" s="5">
-        <v>1</v>
-      </c>
-      <c r="D31" s="7">
-        <v>17</v>
-      </c>
-      <c r="E31" s="7">
-        <f t="shared" si="0"/>
-        <v>17</v>
+      <c r="B31" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B32" s="3" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="C32" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D32" s="7">
-        <v>17</v>
+        <v>170</v>
       </c>
       <c r="E32" s="7">
         <f t="shared" si="0"/>
-        <v>34</v>
+        <v>170</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33" s="1" t="s">
-        <v>17</v>
+      <c r="B33" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" s="5">
+        <v>1</v>
+      </c>
+      <c r="D33" s="7">
+        <v>18</v>
+      </c>
+      <c r="E33" s="7">
+        <f t="shared" si="0"/>
+        <v>18</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B34" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C34" s="5">
+      <c r="B34" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B35" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35" s="5">
         <v>5</v>
       </c>
-      <c r="D34" s="7">
+      <c r="D35" s="7">
         <f>7/5</f>
         <v>1.4</v>
       </c>
-      <c r="E34" s="7">
+      <c r="E35" s="7">
         <f t="shared" si="0"/>
         <v>7</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B35" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C35" s="5">
-        <v>1</v>
-      </c>
-      <c r="D35" s="7">
-        <v>6</v>
-      </c>
-      <c r="E35" s="7">
-        <f t="shared" si="0"/>
-        <v>6</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B36" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C36" s="5">
         <v>1</v>
       </c>
       <c r="D36" s="7">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E36" s="7">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
@@ -1080,23 +1119,22 @@
         <v>35</v>
       </c>
       <c r="C37" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D37" s="7">
-        <f>7/5</f>
-        <v>1.4</v>
+        <v>12</v>
       </c>
       <c r="E37" s="7">
         <f t="shared" si="0"/>
-        <v>5.6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B38" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C38" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D38" s="7">
         <f>7/5</f>
@@ -1104,43 +1142,43 @@
       </c>
       <c r="E38" s="7">
         <f t="shared" si="0"/>
-        <v>2.8</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B39" s="3" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C39" s="5">
         <v>2</v>
       </c>
       <c r="D39" s="7">
-        <v>0.9</v>
+        <f>7/5</f>
+        <v>1.4</v>
       </c>
       <c r="E39" s="7">
         <f t="shared" si="0"/>
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B40" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C40" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D40" s="7">
-        <f>5/10</f>
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="E40" s="7">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B41" s="3" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="C41" s="5">
         <v>1</v>
@@ -1156,38 +1194,38 @@
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B42" s="3" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C42" s="5">
         <v>1</v>
       </c>
       <c r="D42" s="7">
-        <v>0.9</v>
+        <f>5/10</f>
+        <v>0.5</v>
       </c>
       <c r="E42" s="7">
         <f t="shared" si="0"/>
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B43" s="3" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="C43" s="5">
         <v>1</v>
       </c>
       <c r="D43" s="7">
-        <f>5/10</f>
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="E43" s="7">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B44" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C44" s="5">
         <v>1</v>
@@ -1203,10 +1241,10 @@
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B45" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C45" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D45" s="7">
         <f>5/10</f>
@@ -1214,101 +1252,102 @@
       </c>
       <c r="E45" s="7">
         <f t="shared" si="0"/>
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B46" s="3" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C46" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D46" s="7">
-        <v>8</v>
+        <f>5/10</f>
+        <v>0.5</v>
       </c>
       <c r="E46" s="7">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B47" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C47" s="5">
         <v>1</v>
       </c>
       <c r="D47" s="7">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E47" s="7">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B48" s="3" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="C48" s="5">
         <v>1</v>
       </c>
       <c r="D48" s="7">
+        <v>4</v>
+      </c>
+      <c r="E48" s="7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B49" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C49" s="5">
+        <v>1</v>
+      </c>
+      <c r="D49" s="7">
         <f>129.2/10</f>
         <v>12.919999999999998</v>
       </c>
-      <c r="E48" s="7">
+      <c r="E49" s="7">
         <f t="shared" si="0"/>
         <v>12.919999999999998</v>
       </c>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B49" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C49" s="5">
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B50" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C50" s="5">
         <v>2</v>
       </c>
-      <c r="D49" s="7">
+      <c r="D50" s="7">
         <v>11</v>
       </c>
-      <c r="E49" s="7">
+      <c r="E50" s="7">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B50" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C50" s="5">
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B51" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C51" s="5">
         <v>4</v>
       </c>
-      <c r="D50" s="7">
+      <c r="D51" s="7">
         <v>6</v>
       </c>
-      <c r="E50" s="7">
+      <c r="E51" s="7">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B51" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C51" s="5">
-        <v>1</v>
-      </c>
-      <c r="D51" s="7">
-        <v>150</v>
-      </c>
-      <c r="E51" s="7">
-        <f t="shared" si="0"/>
-        <v>150</v>
-      </c>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B52" s="3" t="s">
         <v>20</v>
       </c>
@@ -1316,55 +1355,249 @@
         <v>1</v>
       </c>
       <c r="D52" s="7">
+        <v>150</v>
+      </c>
+      <c r="E52" s="7">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B53" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C53" s="5">
+        <v>1</v>
+      </c>
+      <c r="D53" s="7">
         <v>4</v>
       </c>
-      <c r="E52" s="7">
+      <c r="E53" s="7">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B53" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C53" s="5">
-        <v>1</v>
-      </c>
-      <c r="D53" s="7">
+    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B54" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C54" s="5">
+        <v>1</v>
+      </c>
+      <c r="D54" s="7">
         <v>46</v>
       </c>
-      <c r="E53" s="7">
+      <c r="E54" s="7">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B54" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B55" s="3" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="C55" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D55" s="7">
         <v>79</v>
       </c>
       <c r="E55" s="7">
         <f t="shared" si="0"/>
+        <v>158</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B56" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B57" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C57" s="5">
+        <v>1</v>
+      </c>
+      <c r="D57" s="7">
+        <v>89</v>
+      </c>
+      <c r="E57" s="7">
+        <f t="shared" si="0"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B58" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C58" s="5">
+        <v>2</v>
+      </c>
+      <c r="D58" s="7">
         <v>79</v>
       </c>
-    </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B57" s="8" t="s">
+      <c r="E58" s="7">
+        <f t="shared" si="0"/>
+        <v>158</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B59" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B60" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C60" s="5">
+        <v>1</v>
+      </c>
+      <c r="D60" s="7">
+        <v>79</v>
+      </c>
+      <c r="E60" s="7">
+        <f t="shared" si="0"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B61" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C61" s="5">
+        <v>1</v>
+      </c>
+      <c r="D61" s="7">
+        <v>525</v>
+      </c>
+      <c r="E61" s="7">
+        <f t="shared" si="0"/>
+        <v>525</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B62" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C62" s="5">
+        <v>1</v>
+      </c>
+      <c r="D62" s="7">
+        <v>962</v>
+      </c>
+      <c r="E62" s="7">
+        <f t="shared" si="0"/>
+        <v>962</v>
+      </c>
+      <c r="F62" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B63" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C63" s="5">
+        <v>1</v>
+      </c>
+      <c r="D63" s="7">
+        <v>32</v>
+      </c>
+      <c r="E63" s="7">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="F63" s="10"/>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B64" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C64" s="5">
+        <v>1</v>
+      </c>
+      <c r="D64" s="7">
+        <v>45</v>
+      </c>
+      <c r="E64" s="7">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="F64" s="10"/>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B65" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C65" s="5">
+        <v>1</v>
+      </c>
+      <c r="D65" s="7">
+        <v>27</v>
+      </c>
+      <c r="E65" s="7">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="F65" s="10"/>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B66" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C66" s="5">
+        <v>1</v>
+      </c>
+      <c r="D66" s="7">
+        <v>60</v>
+      </c>
+      <c r="E66" s="7">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F66" s="10"/>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B67" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C67" s="5">
+        <v>1</v>
+      </c>
+      <c r="D67" s="7">
+        <v>35</v>
+      </c>
+      <c r="E67" s="7">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="F67" s="10"/>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B68" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C68" s="5">
+        <v>3</v>
+      </c>
+      <c r="D68" s="7">
+        <v>67</v>
+      </c>
+      <c r="E68" s="7">
+        <f t="shared" si="0"/>
+        <v>201</v>
+      </c>
+      <c r="F68" s="10"/>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B69" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E57" s="8">
-        <f>SUM(E3:E56)</f>
-        <v>7335.88</v>
+      <c r="E69" s="8">
+        <f>SUM(E3:E68)</f>
+        <v>9749.68</v>
       </c>
     </row>
   </sheetData>
@@ -1373,11 +1606,12 @@
     <hyperlink ref="F9" r:id="rId2"/>
     <hyperlink ref="F7" r:id="rId3"/>
     <hyperlink ref="F4" r:id="rId4"/>
-    <hyperlink ref="F12" r:id="rId5"/>
-    <hyperlink ref="F14" r:id="rId6"/>
-    <hyperlink ref="F20" r:id="rId7"/>
+    <hyperlink ref="F11" r:id="rId5"/>
+    <hyperlink ref="F15" r:id="rId6"/>
+    <hyperlink ref="F21" r:id="rId7"/>
+    <hyperlink ref="F62" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
--- a/Scheme/Smeta.xlsx
+++ b/Scheme/Smeta.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="74">
   <si>
     <t>Наименование</t>
   </si>
@@ -152,12 +152,6 @@
     <t>Гнездо PL на корпус фланец</t>
   </si>
   <si>
-    <t>Трансфлюктор М30ВН-6Тр 16*9*7</t>
-  </si>
-  <si>
-    <t>Резистор 51ом</t>
-  </si>
-  <si>
     <t>Ссылка</t>
   </si>
   <si>
@@ -243,6 +237,15 @@
   </si>
   <si>
     <t>SMA-SMA патч корд 6,5"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Трансформатор ADT4-6WT 0.5-600mhz</t>
+  </si>
+  <si>
+    <t>https://ru.aliexpress.com/item/100-NEW-Original-ADT4-6WT-ADT4-6-WT-ADT4-6WT-0-5-MHz-600-MHz-RF/32764096262.html</t>
+  </si>
+  <si>
+    <t>Резистор 100ом</t>
   </si>
 </sst>
 </file>
@@ -622,8 +625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C68" sqref="C68"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -650,7 +653,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
@@ -673,7 +676,7 @@
         <v>2278.73</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
@@ -711,7 +714,7 @@
         <v>707.81</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
@@ -729,7 +732,7 @@
         <v>479.67</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
@@ -747,7 +750,7 @@
         <v>714.68</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
@@ -770,12 +773,12 @@
         <v>933.21</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C12" s="5">
         <v>1</v>
@@ -791,7 +794,7 @@
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C13" s="5">
         <v>2</v>
@@ -826,33 +829,35 @@
         <v>1236.95</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="C16" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16" s="7">
-        <v>12</v>
+        <f>5/10</f>
+        <v>0.5</v>
       </c>
       <c r="E16" s="7">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="C17" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D17" s="7">
-        <v>1</v>
+        <f>5/10</f>
+        <v>0.5</v>
       </c>
       <c r="E17" s="7">
         <f t="shared" si="0"/>
@@ -861,44 +866,46 @@
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C18" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D18" s="7">
-        <f>5/10</f>
-        <v>0.5</v>
+        <f>7/5</f>
+        <v>1.4</v>
       </c>
       <c r="E18" s="7">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="C19" s="5">
         <v>1</v>
       </c>
       <c r="D19" s="7">
-        <f>7/5</f>
-        <v>1.4</v>
+        <v>800</v>
       </c>
       <c r="E19" s="7">
         <f t="shared" si="0"/>
-        <v>1.4</v>
+        <v>800</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C21" s="5">
         <v>1</v>
@@ -911,12 +918,12 @@
         <v>67.5</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C22" s="5">
         <v>1</v>
@@ -932,7 +939,7 @@
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C23" s="5">
         <v>1</v>
@@ -1010,7 +1017,7 @@
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C28" s="5">
         <v>1</v>
@@ -1050,7 +1057,7 @@
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B32" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C32" s="5">
         <v>1</v>
@@ -1065,7 +1072,7 @@
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B33" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C33" s="5">
         <v>1</v>
@@ -1080,7 +1087,7 @@
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.25">
@@ -1394,7 +1401,7 @@
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B55" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C55" s="5">
         <v>2</v>
@@ -1409,12 +1416,12 @@
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B56" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B57" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C57" s="5">
         <v>1</v>
@@ -1429,7 +1436,7 @@
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B58" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C58" s="5">
         <v>2</v>
@@ -1464,7 +1471,7 @@
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B61" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C61" s="5">
         <v>1</v>
@@ -1479,7 +1486,7 @@
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B62" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C62" s="5">
         <v>1</v>
@@ -1492,12 +1499,12 @@
         <v>962</v>
       </c>
       <c r="F62" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B63" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C63" s="5">
         <v>1</v>
@@ -1513,7 +1520,7 @@
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B64" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C64" s="5">
         <v>1</v>
@@ -1529,7 +1536,7 @@
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B65" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C65" s="5">
         <v>1</v>
@@ -1545,7 +1552,7 @@
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B66" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C66" s="5">
         <v>1</v>
@@ -1561,7 +1568,7 @@
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B67" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C67" s="5">
         <v>1</v>
@@ -1577,7 +1584,7 @@
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B68" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C68" s="5">
         <v>3</v>
@@ -1597,7 +1604,7 @@
       </c>
       <c r="E69" s="8">
         <f>SUM(E3:E68)</f>
-        <v>9749.68</v>
+        <v>10537.68</v>
       </c>
     </row>
   </sheetData>
@@ -1610,8 +1617,9 @@
     <hyperlink ref="F15" r:id="rId6"/>
     <hyperlink ref="F21" r:id="rId7"/>
     <hyperlink ref="F62" r:id="rId8"/>
+    <hyperlink ref="F19" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>
--- a/Scheme/Smeta.xlsx
+++ b/Scheme/Smeta.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="76">
   <si>
     <t>Наименование</t>
   </si>
@@ -239,13 +239,19 @@
     <t>SMA-SMA патч корд 6,5"</t>
   </si>
   <si>
-    <t xml:space="preserve"> Трансформатор ADT4-6WT 0.5-600mhz</t>
-  </si>
-  <si>
     <t>https://ru.aliexpress.com/item/100-NEW-Original-ADT4-6WT-ADT4-6-WT-ADT4-6WT-0-5-MHz-600-MHz-RF/32764096262.html</t>
   </si>
   <si>
     <t>Резистор 100ом</t>
+  </si>
+  <si>
+    <t>Трансформатор ADT4-6WT 0.5-600mhz</t>
+  </si>
+  <si>
+    <t>Трансформатор TC1-1T 0.4-500mhz</t>
+  </si>
+  <si>
+    <t>https://ru.aliexpress.com/item/Free-shippin-5pcs-lot-TC1-1T-TC1-1T-SMD-RF-transformer-new-original/32551456247.html</t>
   </si>
 </sst>
 </file>
@@ -623,10 +629,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F69"/>
+  <dimension ref="B2:F70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -690,7 +696,7 @@
         <v>182.11</v>
       </c>
       <c r="E5" s="7">
-        <f t="shared" ref="E5:E68" si="0">C5*D5</f>
+        <f t="shared" ref="E5:E69" si="0">C5*D5</f>
         <v>182.11</v>
       </c>
     </row>
@@ -834,7 +840,7 @@
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C16" s="5">
         <v>2</v>
@@ -882,7 +888,7 @@
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C19" s="5">
         <v>1</v>
@@ -895,7 +901,7 @@
         <v>800</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
@@ -1031,133 +1037,136 @@
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C29" s="5">
+        <v>1</v>
+      </c>
+      <c r="D29" s="7">
+        <f>665/5</f>
+        <v>133</v>
+      </c>
+      <c r="E29" s="7">
+        <f t="shared" si="0"/>
+        <v>133</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B30" s="3" t="s">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B31" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C30" s="5">
-        <v>1</v>
-      </c>
-      <c r="D30" s="7">
+      <c r="C31" s="5">
+        <v>1</v>
+      </c>
+      <c r="D31" s="7">
         <v>145</v>
       </c>
-      <c r="E30" s="7">
+      <c r="E31" s="7">
         <f t="shared" si="0"/>
         <v>145</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B31" s="1" t="s">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B32" s="1" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B32" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C32" s="5">
-        <v>1</v>
-      </c>
-      <c r="D32" s="7">
-        <v>170</v>
-      </c>
-      <c r="E32" s="7">
-        <f t="shared" si="0"/>
-        <v>170</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B33" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C33" s="5">
+        <v>1</v>
+      </c>
+      <c r="D33" s="7">
+        <v>170</v>
+      </c>
+      <c r="E33" s="7">
+        <f t="shared" si="0"/>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B34" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C33" s="5">
-        <v>1</v>
-      </c>
-      <c r="D33" s="7">
+      <c r="C34" s="5">
+        <v>1</v>
+      </c>
+      <c r="D34" s="7">
         <v>18</v>
       </c>
-      <c r="E33" s="7">
+      <c r="E34" s="7">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B34" s="1" t="s">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B35" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B35" s="3" t="s">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B36" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C35" s="5">
+      <c r="C36" s="5">
         <v>5</v>
       </c>
-      <c r="D35" s="7">
+      <c r="D36" s="7">
         <f>7/5</f>
         <v>1.4</v>
       </c>
-      <c r="E35" s="7">
+      <c r="E36" s="7">
         <f t="shared" si="0"/>
         <v>7</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B36" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C36" s="5">
-        <v>1</v>
-      </c>
-      <c r="D36" s="7">
-        <v>6</v>
-      </c>
-      <c r="E36" s="7">
-        <f t="shared" si="0"/>
-        <v>6</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B37" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C37" s="5">
         <v>1</v>
       </c>
       <c r="D37" s="7">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E37" s="7">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B38" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C38" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D38" s="7">
-        <f>7/5</f>
-        <v>1.4</v>
+        <v>12</v>
       </c>
       <c r="E38" s="7">
         <f t="shared" si="0"/>
-        <v>5.6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B39" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C39" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D39" s="7">
         <f>7/5</f>
@@ -1165,43 +1174,43 @@
       </c>
       <c r="E39" s="7">
         <f t="shared" si="0"/>
-        <v>2.8</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B40" s="3" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C40" s="5">
         <v>2</v>
       </c>
       <c r="D40" s="7">
-        <v>0.9</v>
+        <f>7/5</f>
+        <v>1.4</v>
       </c>
       <c r="E40" s="7">
         <f t="shared" si="0"/>
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B41" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C41" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D41" s="7">
-        <f>5/10</f>
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="E41" s="7">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B42" s="3" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="C42" s="5">
         <v>1</v>
@@ -1217,38 +1226,38 @@
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B43" s="3" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C43" s="5">
         <v>1</v>
       </c>
       <c r="D43" s="7">
-        <v>0.9</v>
+        <f>5/10</f>
+        <v>0.5</v>
       </c>
       <c r="E43" s="7">
         <f t="shared" si="0"/>
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B44" s="3" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="C44" s="5">
         <v>1</v>
       </c>
       <c r="D44" s="7">
-        <f>5/10</f>
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="E44" s="7">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B45" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C45" s="5">
         <v>1</v>
@@ -1264,10 +1273,10 @@
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B46" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C46" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D46" s="7">
         <f>5/10</f>
@@ -1275,336 +1284,352 @@
       </c>
       <c r="E46" s="7">
         <f t="shared" si="0"/>
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B47" s="3" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C47" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D47" s="7">
-        <v>8</v>
+        <f>5/10</f>
+        <v>0.5</v>
       </c>
       <c r="E47" s="7">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B48" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C48" s="5">
         <v>1</v>
       </c>
       <c r="D48" s="7">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E48" s="7">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B49" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C49" s="5">
+        <v>1</v>
+      </c>
+      <c r="D49" s="7">
+        <v>4</v>
+      </c>
+      <c r="E49" s="7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B50" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C49" s="5">
-        <v>1</v>
-      </c>
-      <c r="D49" s="7">
+      <c r="C50" s="5">
+        <v>1</v>
+      </c>
+      <c r="D50" s="7">
         <f>129.2/10</f>
         <v>12.919999999999998</v>
       </c>
-      <c r="E49" s="7">
+      <c r="E50" s="7">
         <f t="shared" si="0"/>
         <v>12.919999999999998</v>
-      </c>
-    </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B50" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C50" s="5">
-        <v>2</v>
-      </c>
-      <c r="D50" s="7">
-        <v>11</v>
-      </c>
-      <c r="E50" s="7">
-        <f t="shared" si="0"/>
-        <v>22</v>
       </c>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B51" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C51" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D51" s="7">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E51" s="7">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B52" s="3" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C52" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D52" s="7">
-        <v>150</v>
+        <v>6</v>
       </c>
       <c r="E52" s="7">
         <f t="shared" si="0"/>
-        <v>150</v>
+        <v>24</v>
       </c>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B53" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C53" s="5">
         <v>1</v>
       </c>
       <c r="D53" s="7">
-        <v>4</v>
+        <v>150</v>
       </c>
       <c r="E53" s="7">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>150</v>
       </c>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B54" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C54" s="5">
         <v>1</v>
       </c>
       <c r="D54" s="7">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="E54" s="7">
         <f t="shared" si="0"/>
-        <v>46</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B55" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C55" s="5">
+        <v>1</v>
+      </c>
+      <c r="D55" s="7">
+        <v>46</v>
+      </c>
+      <c r="E55" s="7">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B56" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C55" s="5">
+      <c r="C56" s="5">
         <v>2</v>
       </c>
-      <c r="D55" s="7">
+      <c r="D56" s="7">
         <v>79</v>
       </c>
-      <c r="E55" s="7">
+      <c r="E56" s="7">
         <f t="shared" si="0"/>
         <v>158</v>
       </c>
     </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B56" s="1" t="s">
+    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B57" s="1" t="s">
         <v>68</v>
-      </c>
-    </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B57" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C57" s="5">
-        <v>1</v>
-      </c>
-      <c r="D57" s="7">
-        <v>89</v>
-      </c>
-      <c r="E57" s="7">
-        <f t="shared" si="0"/>
-        <v>89</v>
       </c>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B58" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C58" s="5">
+        <v>1</v>
+      </c>
+      <c r="D58" s="7">
+        <v>89</v>
+      </c>
+      <c r="E58" s="7">
+        <f t="shared" si="0"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B59" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C58" s="5">
+      <c r="C59" s="5">
         <v>2</v>
       </c>
-      <c r="D58" s="7">
+      <c r="D59" s="7">
         <v>79</v>
       </c>
-      <c r="E58" s="7">
+      <c r="E59" s="7">
         <f t="shared" si="0"/>
         <v>158</v>
       </c>
     </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B59" s="1" t="s">
+    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B60" s="1" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B60" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C60" s="5">
-        <v>1</v>
-      </c>
-      <c r="D60" s="7">
-        <v>79</v>
-      </c>
-      <c r="E60" s="7">
-        <f t="shared" si="0"/>
-        <v>79</v>
       </c>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B61" s="3" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="C61" s="5">
         <v>1</v>
       </c>
       <c r="D61" s="7">
-        <v>525</v>
+        <v>79</v>
       </c>
       <c r="E61" s="7">
         <f t="shared" si="0"/>
-        <v>525</v>
+        <v>79</v>
       </c>
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B62" s="3" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="C62" s="5">
         <v>1</v>
       </c>
       <c r="D62" s="7">
-        <v>962</v>
+        <v>525</v>
       </c>
       <c r="E62" s="7">
         <f t="shared" si="0"/>
-        <v>962</v>
-      </c>
-      <c r="F62" s="10" t="s">
-        <v>56</v>
+        <v>525</v>
       </c>
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B63" s="3" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="C63" s="5">
         <v>1</v>
       </c>
       <c r="D63" s="7">
-        <v>32</v>
+        <v>962</v>
       </c>
       <c r="E63" s="7">
         <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="F63" s="10"/>
+        <v>962</v>
+      </c>
+      <c r="F63" s="10" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B64" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C64" s="5">
         <v>1</v>
       </c>
       <c r="D64" s="7">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="E64" s="7">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="F64" s="10"/>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B65" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C65" s="5">
         <v>1</v>
       </c>
       <c r="D65" s="7">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="E65" s="7">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="F65" s="10"/>
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B66" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C66" s="5">
         <v>1</v>
       </c>
       <c r="D66" s="7">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="E66" s="7">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="F66" s="10"/>
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B67" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C67" s="5">
         <v>1</v>
       </c>
       <c r="D67" s="7">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="E67" s="7">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="F67" s="10"/>
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B68" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C68" s="5">
+        <v>1</v>
+      </c>
+      <c r="D68" s="7">
+        <v>35</v>
+      </c>
+      <c r="E68" s="7">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="F68" s="10"/>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B69" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C68" s="5">
+      <c r="C69" s="5">
         <v>3</v>
       </c>
-      <c r="D68" s="7">
+      <c r="D69" s="7">
         <v>67</v>
       </c>
-      <c r="E68" s="7">
+      <c r="E69" s="7">
         <f t="shared" si="0"/>
         <v>201</v>
       </c>
-      <c r="F68" s="10"/>
-    </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B69" s="8" t="s">
+      <c r="F69" s="10"/>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B70" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E69" s="8">
-        <f>SUM(E3:E68)</f>
-        <v>10537.68</v>
+      <c r="E70" s="8">
+        <f>SUM(E3:E69)</f>
+        <v>10670.68</v>
       </c>
     </row>
   </sheetData>
@@ -1616,10 +1641,11 @@
     <hyperlink ref="F11" r:id="rId5"/>
     <hyperlink ref="F15" r:id="rId6"/>
     <hyperlink ref="F21" r:id="rId7"/>
-    <hyperlink ref="F62" r:id="rId8"/>
+    <hyperlink ref="F63" r:id="rId8"/>
     <hyperlink ref="F19" r:id="rId9"/>
+    <hyperlink ref="F29" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>
--- a/Scheme/Smeta.xlsx
+++ b/Scheme/Smeta.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="105">
   <si>
     <t>Наименование</t>
   </si>
@@ -252,6 +252,93 @@
   </si>
   <si>
     <t>https://ru.aliexpress.com/item/Free-shippin-5pcs-lot-TC1-1T-TC1-1T-SMD-RF-transformer-new-original/32551456247.html</t>
+  </si>
+  <si>
+    <t>Помошник</t>
+  </si>
+  <si>
+    <t>Полосовые диапазонные фильтры «BPF-9»</t>
+  </si>
+  <si>
+    <t>Итого трансивер</t>
+  </si>
+  <si>
+    <t>https://ru.aliexpress.com/item/45W-3-28MHz-SSB-linear-Power-Amplifier-board-DIY-Kits-for-transceiver-Radio-HF-FM-CW/32808409970.html</t>
+  </si>
+  <si>
+    <t>Усилитель 45Вт</t>
+  </si>
+  <si>
+    <t>Радиатор HS183-100 50*100*16мм</t>
+  </si>
+  <si>
+    <t>Диод 30CPQ060 TO247AC 60V 30A</t>
+  </si>
+  <si>
+    <t>Модуль реле 1-канальный 12В. 10A 250V/реле</t>
+  </si>
+  <si>
+    <t>Модуль реле 2-х канальный с опторазвязкой 10A 250V</t>
+  </si>
+  <si>
+    <t>Гнездо "Банан" 28мм пластик на корпус PREMIER</t>
+  </si>
+  <si>
+    <t>Штекер "Банан" пластик позолоченный на кабель</t>
+  </si>
+  <si>
+    <t>Кабель акустический 2*2,5мм² красно-чёрный SCC-RB</t>
+  </si>
+  <si>
+    <t>Выключатель клавишный RWB-102 3 конт. 250V 3A</t>
+  </si>
+  <si>
+    <t>Гнездо DIN-5 металл на корпус PREMIER</t>
+  </si>
+  <si>
+    <t>Шнур DIN-5 шт - DIN-5 шт 1,5 REXANT</t>
+  </si>
+  <si>
+    <t>Штекер SMA на кабель RG-174</t>
+  </si>
+  <si>
+    <t>Кабель RG-178 50 Ом</t>
+  </si>
+  <si>
+    <t>DC-DC преобразователь 7-32V -&gt; 1,25-28V 12A XL4012 понижающий</t>
+  </si>
+  <si>
+    <t>DC-DC преобразователь 4,5-28V -&gt; 0,8-20V 3A MP1584EN понижающий</t>
+  </si>
+  <si>
+    <t>Модуль расширителя I2C для ЖКИ на PCF8574</t>
+  </si>
+  <si>
+    <t>ARDUINO UNO R3 (Atmega 328) CH340</t>
+  </si>
+  <si>
+    <t>Итого помошник</t>
+  </si>
+  <si>
+    <t>Итого проект</t>
+  </si>
+  <si>
+    <t>Транзистор BC327 TO92</t>
+  </si>
+  <si>
+    <t>Резистор 2,2 кОм 0,25Вт 5%</t>
+  </si>
+  <si>
+    <t>Резистор 200ом 0805</t>
+  </si>
+  <si>
+    <t>Штекер SMA на кабель RG-58</t>
+  </si>
+  <si>
+    <t>Модуль PAM8403 УНЧ 2*3W 2,5-5V</t>
+  </si>
+  <si>
+    <t>Динамическая головка TRI57N-A 1Вт 8Ом</t>
   </si>
 </sst>
 </file>
@@ -326,7 +413,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -348,6 +435,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -629,10 +719,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F70"/>
+  <dimension ref="B2:F103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="D72" sqref="D72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -696,7 +786,7 @@
         <v>182.11</v>
       </c>
       <c r="E5" s="7">
-        <f t="shared" ref="E5:E69" si="0">C5*D5</f>
+        <f t="shared" ref="E5:E71" si="0">C5*D5</f>
         <v>182.11</v>
       </c>
     </row>
@@ -1624,12 +1714,447 @@
       <c r="F69" s="10"/>
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B70" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E70" s="8">
-        <f>SUM(E3:E69)</f>
-        <v>10670.68</v>
+      <c r="B70" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C70" s="5">
+        <v>1</v>
+      </c>
+      <c r="D70" s="7">
+        <v>55</v>
+      </c>
+      <c r="E70" s="7">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="F70" s="10"/>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B71" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C71" s="5">
+        <v>1</v>
+      </c>
+      <c r="D71" s="7">
+        <v>65</v>
+      </c>
+      <c r="E71" s="7">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="F71" s="10"/>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B72" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E72" s="8">
+        <f>SUM(E3:E71)</f>
+        <v>10790.68</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B75" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>77</v>
+      </c>
+      <c r="C76" s="5">
+        <v>1</v>
+      </c>
+      <c r="D76" s="7">
+        <v>1810</v>
+      </c>
+      <c r="E76" s="7">
+        <f>C76*D76</f>
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="77" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>80</v>
+      </c>
+      <c r="C77" s="5">
+        <v>1</v>
+      </c>
+      <c r="D77" s="7">
+        <v>963</v>
+      </c>
+      <c r="E77" s="7">
+        <f>C77*D77</f>
+        <v>963</v>
+      </c>
+      <c r="F77" s="10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B78" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C78" s="5">
+        <v>1</v>
+      </c>
+      <c r="D78" s="7">
+        <v>525</v>
+      </c>
+      <c r="E78" s="7">
+        <f t="shared" ref="E78:E100" si="1">C78*D78</f>
+        <v>525</v>
+      </c>
+    </row>
+    <row r="79" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B79" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C79" s="5">
+        <v>1</v>
+      </c>
+      <c r="D79" s="7">
+        <v>97</v>
+      </c>
+      <c r="E79" s="7">
+        <f t="shared" si="1"/>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="80" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B80" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C80" s="5">
+        <v>1</v>
+      </c>
+      <c r="D80" s="7">
+        <v>95</v>
+      </c>
+      <c r="E80" s="7">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B81" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C81" s="5">
+        <v>14</v>
+      </c>
+      <c r="D81" s="7">
+        <v>6</v>
+      </c>
+      <c r="E81" s="7">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B82" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C82" s="5">
+        <v>1</v>
+      </c>
+      <c r="D82" s="7">
+        <v>97</v>
+      </c>
+      <c r="E82" s="7">
+        <f t="shared" si="1"/>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B83" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C83" s="5">
+        <v>1</v>
+      </c>
+      <c r="D83" s="7">
+        <v>135</v>
+      </c>
+      <c r="E83" s="7">
+        <f t="shared" si="1"/>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B84" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C84" s="5">
+        <v>2</v>
+      </c>
+      <c r="D84" s="7">
+        <v>79</v>
+      </c>
+      <c r="E84" s="7">
+        <f t="shared" si="1"/>
+        <v>158</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B85" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C85" s="5">
+        <v>2</v>
+      </c>
+      <c r="D85" s="7">
+        <v>32</v>
+      </c>
+      <c r="E85" s="7">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B86" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C86" s="5">
+        <v>4</v>
+      </c>
+      <c r="D86" s="7">
+        <v>23</v>
+      </c>
+      <c r="E86" s="7">
+        <f t="shared" si="1"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B87" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C87" s="5">
+        <v>1</v>
+      </c>
+      <c r="D87" s="7">
+        <v>27</v>
+      </c>
+      <c r="E87" s="7">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B88" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C88" s="5">
+        <v>1</v>
+      </c>
+      <c r="D88" s="7">
+        <v>14</v>
+      </c>
+      <c r="E88" s="7">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B89" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C89" s="5">
+        <v>2</v>
+      </c>
+      <c r="D89" s="7">
+        <v>24</v>
+      </c>
+      <c r="E89" s="7">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B90" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C90" s="5">
+        <v>1</v>
+      </c>
+      <c r="D90" s="7">
+        <v>120</v>
+      </c>
+      <c r="E90" s="7">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B91" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C91" s="5">
+        <v>2</v>
+      </c>
+      <c r="D91" s="7">
+        <v>79</v>
+      </c>
+      <c r="E91" s="7">
+        <f t="shared" si="1"/>
+        <v>158</v>
+      </c>
+    </row>
+    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B92" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C92" s="5">
+        <v>3</v>
+      </c>
+      <c r="D92" s="7">
+        <v>79</v>
+      </c>
+      <c r="E92" s="7">
+        <f t="shared" si="1"/>
+        <v>237</v>
+      </c>
+    </row>
+    <row r="93" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B93" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C93" s="5">
+        <v>1</v>
+      </c>
+      <c r="D93" s="7">
+        <v>79</v>
+      </c>
+      <c r="E93" s="7">
+        <f t="shared" ref="E93" si="2">C93*D93</f>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="94" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B94" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C94" s="5">
+        <v>1</v>
+      </c>
+      <c r="D94" s="7">
+        <v>85</v>
+      </c>
+      <c r="E94" s="7">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="95" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B95" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C95" s="5">
+        <v>1</v>
+      </c>
+      <c r="D95" s="7">
+        <v>397</v>
+      </c>
+      <c r="E95" s="7">
+        <f t="shared" si="1"/>
+        <v>397</v>
+      </c>
+    </row>
+    <row r="96" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B96" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C96" s="5">
+        <v>1</v>
+      </c>
+      <c r="D96" s="7">
+        <v>70</v>
+      </c>
+      <c r="E96" s="7">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="97" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B97" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C97" s="5">
+        <v>2</v>
+      </c>
+      <c r="D97" s="7">
+        <v>100</v>
+      </c>
+      <c r="E97" s="7">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="98" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B98" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C98" s="5">
+        <v>1</v>
+      </c>
+      <c r="D98" s="7">
+        <v>435</v>
+      </c>
+      <c r="E98" s="7">
+        <f t="shared" si="1"/>
+        <v>435</v>
+      </c>
+    </row>
+    <row r="99" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B99" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C99" s="5">
+        <v>14</v>
+      </c>
+      <c r="D99" s="7">
+        <v>1</v>
+      </c>
+      <c r="E99" s="7">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="100" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B100" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C100" s="5">
+        <v>14</v>
+      </c>
+      <c r="D100" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="E100" s="7">
+        <f t="shared" si="1"/>
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="101" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B101" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="E101" s="8">
+        <f>SUM(E76:E100)</f>
+        <v>6016.6</v>
+      </c>
+    </row>
+    <row r="103" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B103" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C103" s="11"/>
+      <c r="D103" s="8"/>
+      <c r="E103" s="8">
+        <f>E72+E101</f>
+        <v>16807.28</v>
       </c>
     </row>
   </sheetData>
@@ -1644,8 +2169,9 @@
     <hyperlink ref="F63" r:id="rId8"/>
     <hyperlink ref="F19" r:id="rId9"/>
     <hyperlink ref="F29" r:id="rId10"/>
+    <hyperlink ref="F77" r:id="rId11"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
 </worksheet>
 </file>
--- a/Scheme/Smeta.xlsx
+++ b/Scheme/Smeta.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Develop\Projects\UA3REO\Scheme\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dropbox\Develop\Projects\UA3REO\Scheme\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -721,8 +721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="D72" sqref="D72"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="B95" sqref="B95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Scheme/Smeta.xlsx
+++ b/Scheme/Smeta.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="108">
   <si>
     <t>Наименование</t>
   </si>
@@ -339,6 +339,15 @@
   </si>
   <si>
     <t>Динамическая головка TRI57N-A 1Вт 8Ом</t>
+  </si>
+  <si>
+    <t>https://www.rv3yf.com/product-page/%D0%BA%D0%BE%D0%BF%D0%B8%D1%8F-%D0%BD%D0%B0%D0%B1%D0%BE%D1%80-%D1%81%D0%B1%D0%BE%D1%80%D0%BA%D0%B8-%D0%BF%D0%BB%D0%B0%D1%82%D1%8B-%D0%BF%D0%BE%D0%BB%D0%BE%D1%81%D0%BE%D0%B2%D1%8B%D1%85-%D1%84%D0%B8%D0%BB%D1%8C%D1%82%D1%80%D0%BE%D0%B2-bpf-9-%D0%BA%D0%B2-%D1%82%D1%80%D0%B0%D0%BD%D1%81%D0%B8%D0%B2%D0%B5%D1%80%D0%B0-%D0%B1%D0%B5%D0%B7-%D1%80%D0%B5%D0%BB%D0%B5</t>
+  </si>
+  <si>
+    <t>Фильтры Нижних Частот ФНЧ-2-2016 для КВ трансивера</t>
+  </si>
+  <si>
+    <t>https://www.rv3yf.com/product-page/%D0%BD%D0%B0%D0%B1%D0%BE%D1%80-%D0%B4%D0%BB%D1%8F-%D1%81%D0%B1%D0%BE%D1%80%D0%BA%D0%B8-%D1%84%D0%BD%D1%87-2-2016-%D0%BA%D0%B2-%D1%82%D1%80%D0%B0%D0%BD%D1%81%D0%B8%D0%B2%D0%B5%D1%80%D0%B0</t>
   </si>
 </sst>
 </file>
@@ -719,10 +728,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F103"/>
+  <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="B95" sqref="B95"/>
+      <selection activeCell="F79" sqref="F79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1773,6 +1782,9 @@
         <f>C76*D76</f>
         <v>1810</v>
       </c>
+      <c r="F76" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="77" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
@@ -1793,368 +1805,386 @@
       </c>
     </row>
     <row r="78" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B78" s="3" t="s">
-        <v>54</v>
+      <c r="B78" t="s">
+        <v>106</v>
       </c>
       <c r="C78" s="5">
         <v>1</v>
       </c>
       <c r="D78" s="7">
-        <v>525</v>
+        <v>1335</v>
       </c>
       <c r="E78" s="7">
-        <f t="shared" ref="E78:E100" si="1">C78*D78</f>
-        <v>525</v>
+        <f>C78*D78</f>
+        <v>1335</v>
+      </c>
+      <c r="F78" s="10" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B79" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C79" s="5">
+        <v>1</v>
+      </c>
+      <c r="D79" s="7">
+        <v>525</v>
+      </c>
+      <c r="E79" s="7">
+        <f t="shared" ref="E79:E101" si="1">C79*D79</f>
+        <v>525</v>
+      </c>
+    </row>
+    <row r="80" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B80" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C79" s="5">
-        <v>1</v>
-      </c>
-      <c r="D79" s="7">
+      <c r="C80" s="5">
+        <v>1</v>
+      </c>
+      <c r="D80" s="7">
         <v>97</v>
       </c>
-      <c r="E79" s="7">
+      <c r="E80" s="7">
         <f t="shared" si="1"/>
         <v>97</v>
       </c>
     </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B80" s="3" t="s">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B81" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C80" s="5">
-        <v>1</v>
-      </c>
-      <c r="D80" s="7">
+      <c r="C81" s="5">
+        <v>1</v>
+      </c>
+      <c r="D81" s="7">
         <v>95</v>
       </c>
-      <c r="E80" s="7">
+      <c r="E81" s="7">
         <f t="shared" si="1"/>
         <v>95</v>
       </c>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B81" s="3" t="s">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B82" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C81" s="5">
+      <c r="C82" s="5">
         <v>14</v>
       </c>
-      <c r="D81" s="7">
+      <c r="D82" s="7">
         <v>6</v>
       </c>
-      <c r="E81" s="7">
+      <c r="E82" s="7">
         <f t="shared" si="1"/>
         <v>84</v>
       </c>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B82" s="3" t="s">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B83" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C82" s="5">
-        <v>1</v>
-      </c>
-      <c r="D82" s="7">
+      <c r="C83" s="5">
+        <v>1</v>
+      </c>
+      <c r="D83" s="7">
         <v>97</v>
       </c>
-      <c r="E82" s="7">
+      <c r="E83" s="7">
         <f t="shared" si="1"/>
         <v>97</v>
       </c>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B83" s="3" t="s">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B84" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C83" s="5">
-        <v>1</v>
-      </c>
-      <c r="D83" s="7">
+      <c r="C84" s="5">
+        <v>1</v>
+      </c>
+      <c r="D84" s="7">
         <v>135</v>
       </c>
-      <c r="E83" s="7">
+      <c r="E84" s="7">
         <f t="shared" si="1"/>
         <v>135</v>
       </c>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B84" s="3" t="s">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B85" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C84" s="5">
+      <c r="C85" s="5">
         <v>2</v>
       </c>
-      <c r="D84" s="7">
+      <c r="D85" s="7">
         <v>79</v>
       </c>
-      <c r="E84" s="7">
+      <c r="E85" s="7">
         <f t="shared" si="1"/>
         <v>158</v>
       </c>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B85" s="3" t="s">
+    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B86" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C85" s="5">
+      <c r="C86" s="5">
         <v>2</v>
       </c>
-      <c r="D85" s="7">
+      <c r="D86" s="7">
         <v>32</v>
       </c>
-      <c r="E85" s="7">
+      <c r="E86" s="7">
         <f t="shared" si="1"/>
         <v>64</v>
       </c>
     </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B86" s="3" t="s">
+    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B87" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C86" s="5">
+      <c r="C87" s="5">
         <v>4</v>
       </c>
-      <c r="D86" s="7">
+      <c r="D87" s="7">
         <v>23</v>
       </c>
-      <c r="E86" s="7">
+      <c r="E87" s="7">
         <f t="shared" si="1"/>
         <v>92</v>
       </c>
     </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B87" s="3" t="s">
+    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B88" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C87" s="5">
-        <v>1</v>
-      </c>
-      <c r="D87" s="7">
+      <c r="C88" s="5">
+        <v>1</v>
+      </c>
+      <c r="D88" s="7">
         <v>27</v>
       </c>
-      <c r="E87" s="7">
+      <c r="E88" s="7">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
     </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B88" s="3" t="s">
+    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B89" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C88" s="5">
-        <v>1</v>
-      </c>
-      <c r="D88" s="7">
+      <c r="C89" s="5">
+        <v>1</v>
+      </c>
+      <c r="D89" s="7">
         <v>14</v>
       </c>
-      <c r="E88" s="7">
+      <c r="E89" s="7">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B89" s="3" t="s">
+    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B90" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C89" s="5">
+      <c r="C90" s="5">
         <v>2</v>
       </c>
-      <c r="D89" s="7">
+      <c r="D90" s="7">
         <v>24</v>
       </c>
-      <c r="E89" s="7">
+      <c r="E90" s="7">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B90" s="3" t="s">
+    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B91" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C90" s="5">
-        <v>1</v>
-      </c>
-      <c r="D90" s="7">
+      <c r="C91" s="5">
+        <v>1</v>
+      </c>
+      <c r="D91" s="7">
         <v>120</v>
       </c>
-      <c r="E90" s="7">
+      <c r="E91" s="7">
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
     </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B91" s="3" t="s">
+    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B92" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C91" s="5">
+      <c r="C92" s="5">
         <v>2</v>
       </c>
-      <c r="D91" s="7">
+      <c r="D92" s="7">
         <v>79</v>
       </c>
-      <c r="E91" s="7">
+      <c r="E92" s="7">
         <f t="shared" si="1"/>
         <v>158</v>
       </c>
     </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B92" s="3" t="s">
+    <row r="93" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B93" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C92" s="5">
+      <c r="C93" s="5">
         <v>3</v>
       </c>
-      <c r="D92" s="7">
+      <c r="D93" s="7">
         <v>79</v>
       </c>
-      <c r="E92" s="7">
+      <c r="E93" s="7">
         <f t="shared" si="1"/>
         <v>237</v>
       </c>
     </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B93" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C93" s="5">
-        <v>1</v>
-      </c>
-      <c r="D93" s="7">
-        <v>79</v>
-      </c>
-      <c r="E93" s="7">
-        <f t="shared" ref="E93" si="2">C93*D93</f>
-        <v>79</v>
-      </c>
-    </row>
     <row r="94" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B94" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C94" s="5">
+        <v>1</v>
+      </c>
+      <c r="D94" s="7">
+        <v>79</v>
+      </c>
+      <c r="E94" s="7">
+        <f t="shared" ref="E94" si="2">C94*D94</f>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="95" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B95" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C94" s="5">
-        <v>1</v>
-      </c>
-      <c r="D94" s="7">
+      <c r="C95" s="5">
+        <v>1</v>
+      </c>
+      <c r="D95" s="7">
         <v>85</v>
       </c>
-      <c r="E94" s="7">
+      <c r="E95" s="7">
         <f t="shared" si="1"/>
         <v>85</v>
       </c>
     </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B95" s="3" t="s">
+    <row r="96" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B96" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C95" s="5">
-        <v>1</v>
-      </c>
-      <c r="D95" s="7">
+      <c r="C96" s="5">
+        <v>1</v>
+      </c>
+      <c r="D96" s="7">
         <v>397</v>
       </c>
-      <c r="E95" s="7">
+      <c r="E96" s="7">
         <f t="shared" si="1"/>
         <v>397</v>
       </c>
     </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B96" s="3" t="s">
+    <row r="97" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B97" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C96" s="5">
-        <v>1</v>
-      </c>
-      <c r="D96" s="7">
+      <c r="C97" s="5">
+        <v>1</v>
+      </c>
+      <c r="D97" s="7">
         <v>70</v>
       </c>
-      <c r="E96" s="7">
+      <c r="E97" s="7">
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
     </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B97" s="3" t="s">
+    <row r="98" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B98" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C97" s="5">
+      <c r="C98" s="5">
         <v>2</v>
       </c>
-      <c r="D97" s="7">
+      <c r="D98" s="7">
         <v>100</v>
       </c>
-      <c r="E97" s="7">
+      <c r="E98" s="7">
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
     </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B98" s="3" t="s">
+    <row r="99" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B99" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C98" s="5">
-        <v>1</v>
-      </c>
-      <c r="D98" s="7">
+      <c r="C99" s="5">
+        <v>1</v>
+      </c>
+      <c r="D99" s="7">
         <v>435</v>
       </c>
-      <c r="E98" s="7">
+      <c r="E99" s="7">
         <f t="shared" si="1"/>
         <v>435</v>
       </c>
     </row>
-    <row r="99" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B99" s="3" t="s">
+    <row r="100" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B100" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C99" s="5">
+      <c r="C100" s="5">
         <v>14</v>
       </c>
-      <c r="D99" s="7">
-        <v>1</v>
-      </c>
-      <c r="E99" s="7">
+      <c r="D100" s="7">
+        <v>1</v>
+      </c>
+      <c r="E100" s="7">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
     </row>
-    <row r="100" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B100" s="3" t="s">
+    <row r="101" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B101" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C100" s="5">
+      <c r="C101" s="5">
         <v>14</v>
       </c>
-      <c r="D100" s="7">
+      <c r="D101" s="7">
         <v>0.9</v>
       </c>
-      <c r="E100" s="7">
+      <c r="E101" s="7">
         <f t="shared" si="1"/>
         <v>12.6</v>
       </c>
     </row>
-    <row r="101" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B101" s="8" t="s">
+    <row r="102" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B102" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="E101" s="8">
-        <f>SUM(E76:E100)</f>
-        <v>6016.6</v>
-      </c>
-    </row>
-    <row r="103" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B103" s="8" t="s">
+      <c r="E102" s="8">
+        <f>SUM(E76:E101)</f>
+        <v>7351.6</v>
+      </c>
+    </row>
+    <row r="104" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B104" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="C103" s="11"/>
-      <c r="D103" s="8"/>
-      <c r="E103" s="8">
-        <f>E72+E101</f>
-        <v>16807.28</v>
+      <c r="C104" s="11"/>
+      <c r="D104" s="8"/>
+      <c r="E104" s="8">
+        <f>E72+E102</f>
+        <v>18142.28</v>
       </c>
     </row>
   </sheetData>
@@ -2170,8 +2200,9 @@
     <hyperlink ref="F19" r:id="rId9"/>
     <hyperlink ref="F29" r:id="rId10"/>
     <hyperlink ref="F77" r:id="rId11"/>
+    <hyperlink ref="F78" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId13"/>
 </worksheet>
 </file>
--- a/Scheme/Smeta.xlsx
+++ b/Scheme/Smeta.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dropbox\Develop\Projects\UA3REO\Scheme\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Develop\Projects\UA3REO\Scheme\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="105">
   <si>
     <t>Наименование</t>
   </si>
@@ -278,9 +278,6 @@
     <t>Модуль реле 1-канальный 12В. 10A 250V/реле</t>
   </si>
   <si>
-    <t>Модуль реле 2-х канальный с опторазвязкой 10A 250V</t>
-  </si>
-  <si>
     <t>Гнездо "Банан" 28мм пластик на корпус PREMIER</t>
   </si>
   <si>
@@ -305,15 +302,9 @@
     <t>Кабель RG-178 50 Ом</t>
   </si>
   <si>
-    <t>DC-DC преобразователь 7-32V -&gt; 1,25-28V 12A XL4012 понижающий</t>
-  </si>
-  <si>
     <t>DC-DC преобразователь 4,5-28V -&gt; 0,8-20V 3A MP1584EN понижающий</t>
   </si>
   <si>
-    <t>Модуль расширителя I2C для ЖКИ на PCF8574</t>
-  </si>
-  <si>
     <t>ARDUINO UNO R3 (Atmega 328) CH340</t>
   </si>
   <si>
@@ -332,9 +323,6 @@
     <t>Резистор 200ом 0805</t>
   </si>
   <si>
-    <t>Штекер SMA на кабель RG-58</t>
-  </si>
-  <si>
     <t>Модуль PAM8403 УНЧ 2*3W 2,5-5V</t>
   </si>
   <si>
@@ -348,6 +336,9 @@
   </si>
   <si>
     <t>https://www.rv3yf.com/product-page/%D0%BD%D0%B0%D0%B1%D0%BE%D1%80-%D0%B4%D0%BB%D1%8F-%D1%81%D0%B1%D0%BE%D1%80%D0%BA%D0%B8-%D1%84%D0%BD%D1%87-2-2016-%D0%BA%D0%B2-%D1%82%D1%80%D0%B0%D0%BD%D1%81%D0%B8%D0%B2%D0%B5%D1%80%D0%B0</t>
+  </si>
+  <si>
+    <t>Модуль реле 2-х канальный с опторазвязкой 5В. 10A 250V</t>
   </si>
 </sst>
 </file>
@@ -728,10 +719,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F104"/>
+  <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="F79" sqref="F79"/>
+      <selection activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1724,7 +1715,7 @@
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B70" s="3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C70" s="5">
         <v>1</v>
@@ -1740,7 +1731,7 @@
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B71" s="3" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C71" s="5">
         <v>1</v>
@@ -1783,7 +1774,7 @@
         <v>1810</v>
       </c>
       <c r="F76" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="77" spans="2:6" x14ac:dyDescent="0.25">
@@ -1806,7 +1797,7 @@
     </row>
     <row r="78" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C78" s="5">
         <v>1</v>
@@ -1819,7 +1810,7 @@
         <v>1335</v>
       </c>
       <c r="F78" s="10" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.25">
@@ -1833,7 +1824,7 @@
         <v>525</v>
       </c>
       <c r="E79" s="7">
-        <f t="shared" ref="E79:E101" si="1">C79*D79</f>
+        <f t="shared" ref="E79:E98" si="1">C79*D79</f>
         <v>525</v>
       </c>
     </row>
@@ -1869,7 +1860,7 @@
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B82" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C82" s="5">
         <v>14</v>
@@ -1899,7 +1890,7 @@
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B84" s="3" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="C84" s="5">
         <v>1</v>
@@ -1929,7 +1920,7 @@
     </row>
     <row r="86" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B86" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C86" s="5">
         <v>2</v>
@@ -1944,7 +1935,7 @@
     </row>
     <row r="87" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B87" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C87" s="5">
         <v>4</v>
@@ -1959,7 +1950,7 @@
     </row>
     <row r="88" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B88" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C88" s="5">
         <v>1</v>
@@ -1974,7 +1965,7 @@
     </row>
     <row r="89" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B89" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C89" s="5">
         <v>1</v>
@@ -1989,7 +1980,7 @@
     </row>
     <row r="90" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B90" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C90" s="5">
         <v>2</v>
@@ -2004,7 +1995,7 @@
     </row>
     <row r="91" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B91" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C91" s="5">
         <v>1</v>
@@ -2034,32 +2025,32 @@
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B93" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C93" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D93" s="7">
         <v>79</v>
       </c>
       <c r="E93" s="7">
         <f t="shared" si="1"/>
-        <v>237</v>
+        <v>316</v>
       </c>
     </row>
     <row r="94" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B94" s="3" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="C94" s="5">
         <v>1</v>
       </c>
       <c r="D94" s="7">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E94" s="7">
-        <f t="shared" ref="E94" si="2">C94*D94</f>
-        <v>79</v>
+        <f t="shared" si="1"/>
+        <v>85</v>
       </c>
     </row>
     <row r="95" spans="2:5" x14ac:dyDescent="0.25">
@@ -2070,11 +2061,11 @@
         <v>1</v>
       </c>
       <c r="D95" s="7">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="E95" s="7">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>70</v>
       </c>
     </row>
     <row r="96" spans="2:5" x14ac:dyDescent="0.25">
@@ -2085,106 +2076,61 @@
         <v>1</v>
       </c>
       <c r="D96" s="7">
-        <v>397</v>
+        <v>435</v>
       </c>
       <c r="E96" s="7">
         <f t="shared" si="1"/>
-        <v>397</v>
+        <v>435</v>
       </c>
     </row>
     <row r="97" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B97" s="3" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C97" s="5">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D97" s="7">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="E97" s="7">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>14</v>
       </c>
     </row>
     <row r="98" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B98" s="3" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C98" s="5">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D98" s="7">
-        <v>100</v>
+        <v>0.9</v>
       </c>
       <c r="E98" s="7">
         <f t="shared" si="1"/>
-        <v>200</v>
+        <v>12.6</v>
       </c>
     </row>
     <row r="99" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B99" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C99" s="5">
-        <v>1</v>
-      </c>
-      <c r="D99" s="7">
-        <v>435</v>
-      </c>
-      <c r="E99" s="7">
-        <f t="shared" si="1"/>
-        <v>435</v>
-      </c>
-    </row>
-    <row r="100" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B100" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C100" s="5">
-        <v>14</v>
-      </c>
-      <c r="D100" s="7">
-        <v>1</v>
-      </c>
-      <c r="E100" s="7">
-        <f t="shared" si="1"/>
-        <v>14</v>
+      <c r="B99" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E99" s="8">
+        <f>SUM(E76:E98)</f>
+        <v>6754.6</v>
       </c>
     </row>
     <row r="101" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B101" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C101" s="5">
-        <v>14</v>
-      </c>
-      <c r="D101" s="7">
-        <v>0.9</v>
-      </c>
-      <c r="E101" s="7">
-        <f t="shared" si="1"/>
-        <v>12.6</v>
-      </c>
-    </row>
-    <row r="102" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B102" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="E102" s="8">
-        <f>SUM(E76:E101)</f>
-        <v>7351.6</v>
-      </c>
-    </row>
-    <row r="104" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B104" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="C104" s="11"/>
-      <c r="D104" s="8"/>
-      <c r="E104" s="8">
-        <f>E72+E102</f>
-        <v>18142.28</v>
+      <c r="B101" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C101" s="11"/>
+      <c r="D101" s="8"/>
+      <c r="E101" s="8">
+        <f>E72+E99</f>
+        <v>17545.28</v>
       </c>
     </row>
   </sheetData>

--- a/Scheme/Smeta.xlsx
+++ b/Scheme/Smeta.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="108">
   <si>
     <t>Наименование</t>
   </si>
@@ -314,15 +314,6 @@
     <t>Итого проект</t>
   </si>
   <si>
-    <t>Транзистор BC327 TO92</t>
-  </si>
-  <si>
-    <t>Резистор 2,2 кОм 0,25Вт 5%</t>
-  </si>
-  <si>
-    <t>Резистор 200ом 0805</t>
-  </si>
-  <si>
     <t>Модуль PAM8403 УНЧ 2*3W 2,5-5V</t>
   </si>
   <si>
@@ -339,6 +330,24 @@
   </si>
   <si>
     <t>Модуль реле 2-х канальный с опторазвязкой 5В. 10A 250V</t>
+  </si>
+  <si>
+    <t>Транзистор BC327 TO92 PNP</t>
+  </si>
+  <si>
+    <t>Транзистор BC337 TO92 NPN</t>
+  </si>
+  <si>
+    <t>Резистор 10 кОм 0,25Вт 5%</t>
+  </si>
+  <si>
+    <t>Резистор 1,0 кОм 0,25Вт 5%</t>
+  </si>
+  <si>
+    <t>https://online-electric.ru/circuitjs/circuitjs.html?cct=$+1+0.000005+10.20027730826997+50+5+43%0At+576+224+608+224+0+-1+-0.6529547186978224+-0.6610438851257427+100%0Ar+512+224+512+144+0+10000%0Ar+480+240+400+240+0+1000%0Aw+608+208+608+144+0%0A178+624+272+800+272+0+1+0.2+0.00799460722238141+0.05+1000000+0.007+1500%0Ag+608+384+608+432+0%0AR+608+144+608+80+0+0+40+12+0+0+0.5%0AR+336+208+272+208+0+0+40+5+0+0+0.5%0Aw+608+240+608+304+0%0Aw+608+304+624+304+0%0Ar+608+304+608+384+0+100000%0Aw+624+320+624+384+0%0Aw+624+384+608+384+0%0AR+336+272+272+272+0+0+40+0+0+0+0.5%0As+400+208+336+208+0+0+false%0As+400+272+336+272+0+1+false%0Aw+400+208+400+240+0%0Aw+400+240+400+272+0%0Ar+576+224+512+224+0+1000%0At+480+240+512+240+0+1+0.6284941517991964+0.6517615949727911+100%0Ag+512+256+512+288+0%0Aw+512+144+608+144+0%0A</t>
+  </si>
+  <si>
+    <t>Макетница двухсторонняя PCBM-05 30*70мм</t>
   </si>
 </sst>
 </file>
@@ -719,10 +728,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F101"/>
+  <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="B76" sqref="B76"/>
+      <selection activeCell="E100" sqref="E100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1715,7 +1724,7 @@
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B70" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C70" s="5">
         <v>1</v>
@@ -1731,7 +1740,7 @@
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B71" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C71" s="5">
         <v>1</v>
@@ -1774,7 +1783,7 @@
         <v>1810</v>
       </c>
       <c r="F76" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="77" spans="2:6" x14ac:dyDescent="0.25">
@@ -1797,7 +1806,7 @@
     </row>
     <row r="78" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C78" s="5">
         <v>1</v>
@@ -1810,7 +1819,7 @@
         <v>1335</v>
       </c>
       <c r="F78" s="10" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.25">
@@ -1824,7 +1833,7 @@
         <v>525</v>
       </c>
       <c r="E79" s="7">
-        <f t="shared" ref="E79:E98" si="1">C79*D79</f>
+        <f t="shared" ref="E79:E100" si="1">C79*D79</f>
         <v>525</v>
       </c>
     </row>
@@ -1843,7 +1852,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B81" s="3" t="s">
         <v>82</v>
       </c>
@@ -1858,279 +1867,312 @@
         <v>95</v>
       </c>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B82" s="3" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="C82" s="5">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D82" s="7">
         <v>6</v>
       </c>
       <c r="E82" s="7">
         <f t="shared" si="1"/>
-        <v>84</v>
-      </c>
-    </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="F82" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="83" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B83" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C83" s="5">
+        <v>12</v>
+      </c>
+      <c r="D83" s="7">
+        <v>6</v>
+      </c>
+      <c r="E83" s="7">
+        <f t="shared" ref="E83" si="2">C83*D83</f>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="84" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B84" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C83" s="5">
-        <v>1</v>
-      </c>
-      <c r="D83" s="7">
+      <c r="C84" s="5">
+        <v>1</v>
+      </c>
+      <c r="D84" s="7">
         <v>97</v>
       </c>
-      <c r="E83" s="7">
+      <c r="E84" s="7">
         <f t="shared" si="1"/>
         <v>97</v>
       </c>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B84" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C84" s="5">
-        <v>1</v>
-      </c>
-      <c r="D84" s="7">
+    <row r="85" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B85" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C85" s="5">
+        <v>1</v>
+      </c>
+      <c r="D85" s="7">
         <v>135</v>
       </c>
-      <c r="E84" s="7">
+      <c r="E85" s="7">
         <f t="shared" si="1"/>
         <v>135</v>
       </c>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B85" s="3" t="s">
+    <row r="86" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B86" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C85" s="5">
+      <c r="C86" s="5">
         <v>2</v>
       </c>
-      <c r="D85" s="7">
+      <c r="D86" s="7">
         <v>79</v>
       </c>
-      <c r="E85" s="7">
+      <c r="E86" s="7">
         <f t="shared" si="1"/>
         <v>158</v>
       </c>
     </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B86" s="3" t="s">
+    <row r="87" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B87" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C86" s="5">
+      <c r="C87" s="5">
         <v>2</v>
       </c>
-      <c r="D86" s="7">
+      <c r="D87" s="7">
         <v>32</v>
       </c>
-      <c r="E86" s="7">
+      <c r="E87" s="7">
         <f t="shared" si="1"/>
         <v>64</v>
       </c>
     </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B87" s="3" t="s">
+    <row r="88" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B88" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C87" s="5">
+      <c r="C88" s="5">
         <v>4</v>
       </c>
-      <c r="D87" s="7">
+      <c r="D88" s="7">
         <v>23</v>
       </c>
-      <c r="E87" s="7">
+      <c r="E88" s="7">
         <f t="shared" si="1"/>
         <v>92</v>
       </c>
     </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B88" s="3" t="s">
+    <row r="89" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B89" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C88" s="5">
-        <v>1</v>
-      </c>
-      <c r="D88" s="7">
+      <c r="C89" s="5">
+        <v>1</v>
+      </c>
+      <c r="D89" s="7">
         <v>27</v>
       </c>
-      <c r="E88" s="7">
+      <c r="E89" s="7">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B89" s="3" t="s">
+    <row r="90" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B90" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C89" s="5">
-        <v>1</v>
-      </c>
-      <c r="D89" s="7">
+      <c r="C90" s="5">
+        <v>1</v>
+      </c>
+      <c r="D90" s="7">
         <v>14</v>
       </c>
-      <c r="E89" s="7">
+      <c r="E90" s="7">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B90" s="3" t="s">
+    <row r="91" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B91" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C90" s="5">
+      <c r="C91" s="5">
         <v>2</v>
       </c>
-      <c r="D90" s="7">
+      <c r="D91" s="7">
         <v>24</v>
       </c>
-      <c r="E90" s="7">
+      <c r="E91" s="7">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
     </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B91" s="3" t="s">
+    <row r="92" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B92" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C91" s="5">
-        <v>1</v>
-      </c>
-      <c r="D91" s="7">
+      <c r="C92" s="5">
+        <v>1</v>
+      </c>
+      <c r="D92" s="7">
         <v>120</v>
       </c>
-      <c r="E91" s="7">
+      <c r="E92" s="7">
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
     </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B92" s="3" t="s">
+    <row r="93" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B93" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C92" s="5">
+      <c r="C93" s="5">
         <v>2</v>
       </c>
-      <c r="D92" s="7">
+      <c r="D93" s="7">
         <v>79</v>
       </c>
-      <c r="E92" s="7">
+      <c r="E93" s="7">
         <f t="shared" si="1"/>
         <v>158</v>
       </c>
     </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B93" s="3" t="s">
+    <row r="94" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B94" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C93" s="5">
+      <c r="C94" s="5">
         <v>4</v>
       </c>
-      <c r="D93" s="7">
+      <c r="D94" s="7">
         <v>79</v>
       </c>
-      <c r="E93" s="7">
+      <c r="E94" s="7">
         <f t="shared" si="1"/>
         <v>316</v>
       </c>
     </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B94" s="3" t="s">
+    <row r="95" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B95" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C94" s="5">
-        <v>1</v>
-      </c>
-      <c r="D94" s="7">
+      <c r="C95" s="5">
+        <v>1</v>
+      </c>
+      <c r="D95" s="7">
         <v>85</v>
       </c>
-      <c r="E94" s="7">
+      <c r="E95" s="7">
         <f t="shared" si="1"/>
         <v>85</v>
       </c>
     </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B95" s="3" t="s">
+    <row r="96" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B96" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C95" s="5">
-        <v>1</v>
-      </c>
-      <c r="D95" s="7">
+      <c r="C96" s="5">
+        <v>1</v>
+      </c>
+      <c r="D96" s="7">
         <v>70</v>
       </c>
-      <c r="E95" s="7">
+      <c r="E96" s="7">
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
     </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B96" s="3" t="s">
+    <row r="97" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B97" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C96" s="5">
-        <v>1</v>
-      </c>
-      <c r="D96" s="7">
+      <c r="C97" s="5">
+        <v>1</v>
+      </c>
+      <c r="D97" s="7">
         <v>435</v>
       </c>
-      <c r="E96" s="7">
+      <c r="E97" s="7">
         <f t="shared" si="1"/>
         <v>435</v>
       </c>
     </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B97" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C97" s="5">
-        <v>14</v>
-      </c>
-      <c r="D97" s="7">
-        <v>1</v>
-      </c>
-      <c r="E97" s="7">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-    </row>
     <row r="98" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B98" s="3" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="C98" s="5">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D98" s="7">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="E98" s="7">
         <f t="shared" si="1"/>
-        <v>12.6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="99" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B99" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="E99" s="8">
-        <f>SUM(E76:E98)</f>
-        <v>6754.6</v>
+      <c r="B99" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C99" s="5">
+        <v>24</v>
+      </c>
+      <c r="D99" s="7">
+        <v>1</v>
+      </c>
+      <c r="E99" s="7">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="100" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B100" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C100" s="5">
+        <v>1</v>
+      </c>
+      <c r="D100" s="7">
+        <v>30</v>
+      </c>
+      <c r="E100" s="7">
+        <f t="shared" si="1"/>
+        <v>30</v>
       </c>
     </row>
     <row r="101" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B101" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E101" s="8">
+        <f>SUM(E76:E100)</f>
+        <v>6854</v>
+      </c>
+    </row>
+    <row r="103" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B103" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="C101" s="11"/>
-      <c r="D101" s="8"/>
-      <c r="E101" s="8">
-        <f>E72+E99</f>
-        <v>17545.28</v>
+      <c r="C103" s="11"/>
+      <c r="D103" s="8"/>
+      <c r="E103" s="8">
+        <f>E72+E101</f>
+        <v>17644.68</v>
       </c>
     </row>
   </sheetData>

--- a/Scheme/Smeta.xlsx
+++ b/Scheme/Smeta.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="86">
   <si>
     <t>Наименование</t>
   </si>
@@ -254,12 +254,6 @@
     <t>https://ru.aliexpress.com/item/Free-shippin-5pcs-lot-TC1-1T-TC1-1T-SMD-RF-transformer-new-original/32551456247.html</t>
   </si>
   <si>
-    <t>Помошник</t>
-  </si>
-  <si>
-    <t>Полосовые диапазонные фильтры «BPF-9»</t>
-  </si>
-  <si>
     <t>Итого трансивер</t>
   </si>
   <si>
@@ -272,82 +266,22 @@
     <t>Радиатор HS183-100 50*100*16мм</t>
   </si>
   <si>
-    <t>Диод 30CPQ060 TO247AC 60V 30A</t>
-  </si>
-  <si>
-    <t>Модуль реле 1-канальный 12В. 10A 250V/реле</t>
-  </si>
-  <si>
-    <t>Гнездо "Банан" 28мм пластик на корпус PREMIER</t>
-  </si>
-  <si>
-    <t>Штекер "Банан" пластик позолоченный на кабель</t>
-  </si>
-  <si>
-    <t>Кабель акустический 2*2,5мм² красно-чёрный SCC-RB</t>
-  </si>
-  <si>
-    <t>Выключатель клавишный RWB-102 3 конт. 250V 3A</t>
-  </si>
-  <si>
-    <t>Гнездо DIN-5 металл на корпус PREMIER</t>
-  </si>
-  <si>
-    <t>Шнур DIN-5 шт - DIN-5 шт 1,5 REXANT</t>
-  </si>
-  <si>
     <t>Штекер SMA на кабель RG-174</t>
   </si>
   <si>
     <t>Кабель RG-178 50 Ом</t>
   </si>
   <si>
-    <t>DC-DC преобразователь 4,5-28V -&gt; 0,8-20V 3A MP1584EN понижающий</t>
-  </si>
-  <si>
-    <t>ARDUINO UNO R3 (Atmega 328) CH340</t>
-  </si>
-  <si>
-    <t>Итого помошник</t>
-  </si>
-  <si>
-    <t>Итого проект</t>
-  </si>
-  <si>
     <t>Модуль PAM8403 УНЧ 2*3W 2,5-5V</t>
   </si>
   <si>
     <t>Динамическая головка TRI57N-A 1Вт 8Ом</t>
   </si>
   <si>
-    <t>https://www.rv3yf.com/product-page/%D0%BA%D0%BE%D0%BF%D0%B8%D1%8F-%D0%BD%D0%B0%D0%B1%D0%BE%D1%80-%D1%81%D0%B1%D0%BE%D1%80%D0%BA%D0%B8-%D0%BF%D0%BB%D0%B0%D1%82%D1%8B-%D0%BF%D0%BE%D0%BB%D0%BE%D1%81%D0%BE%D0%B2%D1%8B%D1%85-%D1%84%D0%B8%D0%BB%D1%8C%D1%82%D1%80%D0%BE%D0%B2-bpf-9-%D0%BA%D0%B2-%D1%82%D1%80%D0%B0%D0%BD%D1%81%D0%B8%D0%B2%D0%B5%D1%80%D0%B0-%D0%B1%D0%B5%D0%B7-%D1%80%D0%B5%D0%BB%D0%B5</t>
-  </si>
-  <si>
-    <t>Фильтры Нижних Частот ФНЧ-2-2016 для КВ трансивера</t>
-  </si>
-  <si>
-    <t>https://www.rv3yf.com/product-page/%D0%BD%D0%B0%D0%B1%D0%BE%D1%80-%D0%B4%D0%BB%D1%8F-%D1%81%D0%B1%D0%BE%D1%80%D0%BA%D0%B8-%D1%84%D0%BD%D1%87-2-2016-%D0%BA%D0%B2-%D1%82%D1%80%D0%B0%D0%BD%D1%81%D0%B8%D0%B2%D0%B5%D1%80%D0%B0</t>
-  </si>
-  <si>
-    <t>Модуль реле 2-х канальный с опторазвязкой 5В. 10A 250V</t>
-  </si>
-  <si>
-    <t>Транзистор BC327 TO92 PNP</t>
-  </si>
-  <si>
     <t>Транзистор BC337 TO92 NPN</t>
   </si>
   <si>
-    <t>Резистор 10 кОм 0,25Вт 5%</t>
-  </si>
-  <si>
-    <t>Резистор 1,0 кОм 0,25Вт 5%</t>
-  </si>
-  <si>
-    <t>https://online-electric.ru/circuitjs/circuitjs.html?cct=$+1+0.000005+10.20027730826997+50+5+43%0At+576+224+608+224+0+-1+-0.6529547186978224+-0.6610438851257427+100%0Ar+512+224+512+144+0+10000%0Ar+480+240+400+240+0+1000%0Aw+608+208+608+144+0%0A178+624+272+800+272+0+1+0.2+0.00799460722238141+0.05+1000000+0.007+1500%0Ag+608+384+608+432+0%0AR+608+144+608+80+0+0+40+12+0+0+0.5%0AR+336+208+272+208+0+0+40+5+0+0+0.5%0Aw+608+240+608+304+0%0Aw+608+304+624+304+0%0Ar+608+304+608+384+0+100000%0Aw+624+320+624+384+0%0Aw+624+384+608+384+0%0AR+336+272+272+272+0+0+40+0+0+0+0.5%0As+400+208+336+208+0+0+false%0As+400+272+336+272+0+1+false%0Aw+400+208+400+240+0%0Aw+400+240+400+272+0%0Ar+576+224+512+224+0+1000%0At+480+240+512+240+0+1+0.6284941517991964+0.6517615949727911+100%0Ag+512+256+512+288+0%0Aw+512+144+608+144+0%0A</t>
-  </si>
-  <si>
-    <t>Макетница двухсторонняя PCBM-05 30*70мм</t>
+    <t>Транзистор C2078</t>
   </si>
 </sst>
 </file>
@@ -422,7 +356,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -444,9 +378,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -728,11 +659,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F103"/>
+  <dimension ref="B2:F82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="E100" sqref="E100"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1724,7 +1653,7 @@
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B70" s="3" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="C70" s="5">
         <v>1</v>
@@ -1740,7 +1669,7 @@
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B71" s="3" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="C71" s="5">
         <v>1</v>
@@ -1755,425 +1684,130 @@
       <c r="F71" s="10"/>
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B72" s="8" t="s">
+      <c r="B72" t="s">
         <v>78</v>
       </c>
-      <c r="E72" s="8">
-        <f>SUM(E3:E71)</f>
-        <v>10790.68</v>
-      </c>
+      <c r="C72" s="5">
+        <v>1</v>
+      </c>
+      <c r="D72" s="7">
+        <v>963</v>
+      </c>
+      <c r="E72" s="7">
+        <f>C72*D72</f>
+        <v>963</v>
+      </c>
+      <c r="F72" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B73" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C73" s="5">
+        <v>1</v>
+      </c>
+      <c r="D73" s="7">
+        <v>97</v>
+      </c>
+      <c r="E73" s="7">
+        <f>C73*D73</f>
+        <v>97</v>
+      </c>
+      <c r="F73" s="10"/>
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B74" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C74" s="5">
+        <v>1</v>
+      </c>
+      <c r="D74" s="7">
+        <v>6</v>
+      </c>
+      <c r="E74" s="7">
+        <f t="shared" ref="E74" si="1">C74*D74</f>
+        <v>6</v>
+      </c>
+      <c r="F74" s="10"/>
     </row>
     <row r="75" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B75" s="9" t="s">
-        <v>76</v>
-      </c>
+      <c r="B75" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C75" s="5">
+        <v>1</v>
+      </c>
+      <c r="D75" s="7">
+        <v>72</v>
+      </c>
+      <c r="E75" s="7">
+        <f>C75*D75</f>
+        <v>72</v>
+      </c>
+      <c r="F75" s="10"/>
     </row>
     <row r="76" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B76" t="s">
-        <v>77</v>
+      <c r="B76" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="C76" s="5">
         <v>1</v>
       </c>
       <c r="D76" s="7">
-        <v>1810</v>
+        <v>89</v>
       </c>
       <c r="E76" s="7">
         <f>C76*D76</f>
-        <v>1810</v>
-      </c>
-      <c r="F76" t="s">
-        <v>98</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="F76" s="10"/>
     </row>
     <row r="77" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B77" t="s">
+      <c r="B77" s="3" t="s">
         <v>80</v>
       </c>
       <c r="C77" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D77" s="7">
-        <v>963</v>
+        <v>79</v>
       </c>
       <c r="E77" s="7">
-        <f>C77*D77</f>
-        <v>963</v>
-      </c>
-      <c r="F77" s="10" t="s">
-        <v>79</v>
-      </c>
+        <f t="shared" ref="E77:E78" si="2">C77*D77</f>
+        <v>158</v>
+      </c>
+      <c r="F77" s="10"/>
     </row>
     <row r="78" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B78" t="s">
-        <v>99</v>
+      <c r="B78" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="C78" s="5">
         <v>1</v>
       </c>
       <c r="D78" s="7">
-        <v>1335</v>
+        <v>85</v>
       </c>
       <c r="E78" s="7">
-        <f>C78*D78</f>
-        <v>1335</v>
-      </c>
-      <c r="F78" s="10" t="s">
-        <v>100</v>
-      </c>
+        <f t="shared" si="2"/>
+        <v>85</v>
+      </c>
+      <c r="F78" s="10"/>
     </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B79" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C79" s="5">
-        <v>1</v>
-      </c>
-      <c r="D79" s="7">
-        <v>525</v>
-      </c>
-      <c r="E79" s="7">
-        <f t="shared" ref="E79:E100" si="1">C79*D79</f>
-        <v>525</v>
-      </c>
-    </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B80" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C80" s="5">
-        <v>1</v>
-      </c>
-      <c r="D80" s="7">
-        <v>97</v>
-      </c>
-      <c r="E80" s="7">
-        <f t="shared" si="1"/>
-        <v>97</v>
-      </c>
-    </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B81" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C81" s="5">
-        <v>1</v>
-      </c>
-      <c r="D81" s="7">
-        <v>95</v>
-      </c>
-      <c r="E81" s="7">
-        <f t="shared" si="1"/>
-        <v>95</v>
-      </c>
-    </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B82" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C82" s="5">
-        <v>12</v>
-      </c>
-      <c r="D82" s="7">
-        <v>6</v>
-      </c>
-      <c r="E82" s="7">
-        <f t="shared" si="1"/>
-        <v>72</v>
-      </c>
-      <c r="F82" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B83" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C83" s="5">
-        <v>12</v>
-      </c>
-      <c r="D83" s="7">
-        <v>6</v>
-      </c>
-      <c r="E83" s="7">
-        <f t="shared" ref="E83" si="2">C83*D83</f>
-        <v>72</v>
-      </c>
-    </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B84" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C84" s="5">
-        <v>1</v>
-      </c>
-      <c r="D84" s="7">
-        <v>97</v>
-      </c>
-      <c r="E84" s="7">
-        <f t="shared" si="1"/>
-        <v>97</v>
-      </c>
-    </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B85" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C85" s="5">
-        <v>1</v>
-      </c>
-      <c r="D85" s="7">
-        <v>135</v>
-      </c>
-      <c r="E85" s="7">
-        <f t="shared" si="1"/>
-        <v>135</v>
-      </c>
-    </row>
-    <row r="86" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B86" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C86" s="5">
-        <v>2</v>
-      </c>
-      <c r="D86" s="7">
-        <v>79</v>
-      </c>
-      <c r="E86" s="7">
-        <f t="shared" si="1"/>
-        <v>158</v>
-      </c>
-    </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B87" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C87" s="5">
-        <v>2</v>
-      </c>
-      <c r="D87" s="7">
-        <v>32</v>
-      </c>
-      <c r="E87" s="7">
-        <f t="shared" si="1"/>
-        <v>64</v>
-      </c>
-    </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B88" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C88" s="5">
-        <v>4</v>
-      </c>
-      <c r="D88" s="7">
-        <v>23</v>
-      </c>
-      <c r="E88" s="7">
-        <f t="shared" si="1"/>
-        <v>92</v>
-      </c>
-    </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B89" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C89" s="5">
-        <v>1</v>
-      </c>
-      <c r="D89" s="7">
-        <v>27</v>
-      </c>
-      <c r="E89" s="7">
-        <f t="shared" si="1"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B90" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C90" s="5">
-        <v>1</v>
-      </c>
-      <c r="D90" s="7">
-        <v>14</v>
-      </c>
-      <c r="E90" s="7">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="91" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B91" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C91" s="5">
-        <v>2</v>
-      </c>
-      <c r="D91" s="7">
-        <v>24</v>
-      </c>
-      <c r="E91" s="7">
-        <f t="shared" si="1"/>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="92" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B92" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C92" s="5">
-        <v>1</v>
-      </c>
-      <c r="D92" s="7">
-        <v>120</v>
-      </c>
-      <c r="E92" s="7">
-        <f t="shared" si="1"/>
-        <v>120</v>
-      </c>
-    </row>
-    <row r="93" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B93" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C93" s="5">
-        <v>2</v>
-      </c>
-      <c r="D93" s="7">
-        <v>79</v>
-      </c>
-      <c r="E93" s="7">
-        <f t="shared" si="1"/>
-        <v>158</v>
-      </c>
-    </row>
-    <row r="94" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B94" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C94" s="5">
-        <v>4</v>
-      </c>
-      <c r="D94" s="7">
-        <v>79</v>
-      </c>
-      <c r="E94" s="7">
-        <f t="shared" si="1"/>
-        <v>316</v>
-      </c>
-    </row>
-    <row r="95" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B95" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C95" s="5">
-        <v>1</v>
-      </c>
-      <c r="D95" s="7">
-        <v>85</v>
-      </c>
-      <c r="E95" s="7">
-        <f t="shared" si="1"/>
-        <v>85</v>
-      </c>
-    </row>
-    <row r="96" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B96" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C96" s="5">
-        <v>1</v>
-      </c>
-      <c r="D96" s="7">
-        <v>70</v>
-      </c>
-      <c r="E96" s="7">
-        <f t="shared" si="1"/>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B97" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C97" s="5">
-        <v>1</v>
-      </c>
-      <c r="D97" s="7">
-        <v>435</v>
-      </c>
-      <c r="E97" s="7">
-        <f t="shared" si="1"/>
-        <v>435</v>
-      </c>
-    </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B98" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C98" s="5">
-        <v>12</v>
-      </c>
-      <c r="D98" s="7">
-        <v>1</v>
-      </c>
-      <c r="E98" s="7">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="99" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B99" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C99" s="5">
-        <v>24</v>
-      </c>
-      <c r="D99" s="7">
-        <v>1</v>
-      </c>
-      <c r="E99" s="7">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="100" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B100" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C100" s="5">
-        <v>1</v>
-      </c>
-      <c r="D100" s="7">
-        <v>30</v>
-      </c>
-      <c r="E100" s="7">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="101" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B101" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="E101" s="8">
-        <f>SUM(E76:E100)</f>
-        <v>6854</v>
-      </c>
-    </row>
-    <row r="103" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B103" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="C103" s="11"/>
-      <c r="D103" s="8"/>
-      <c r="E103" s="8">
-        <f>E72+E101</f>
-        <v>17644.68</v>
-      </c>
+      <c r="B79" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E79" s="8">
+        <f>SUM(E3:E78)</f>
+        <v>12260.68</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B82" s="9"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2187,10 +1821,9 @@
     <hyperlink ref="F63" r:id="rId8"/>
     <hyperlink ref="F19" r:id="rId9"/>
     <hyperlink ref="F29" r:id="rId10"/>
-    <hyperlink ref="F77" r:id="rId11"/>
-    <hyperlink ref="F78" r:id="rId12"/>
+    <hyperlink ref="F72" r:id="rId11"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId13"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
 </worksheet>
 </file>
--- a/Scheme/Smeta.xlsx
+++ b/Scheme/Smeta.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Develop\Projects\UA3REO\Scheme\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dropbox\Develop\Projects\UA3REO\Scheme\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="80">
   <si>
     <t>Наименование</t>
   </si>
@@ -86,15 +86,9 @@
     <t>Диод 1N4148WS</t>
   </si>
   <si>
-    <t>Реле V23079A2003B301 12вольт 2 пер</t>
-  </si>
-  <si>
     <t>Плата УНЧ</t>
   </si>
   <si>
-    <t>Модуль PAM8403 ADJ УНЧ 2*3W 2,5-5V с регулятором</t>
-  </si>
-  <si>
     <t>Стабилизатор LM1117S-ADJ D2PAK</t>
   </si>
   <si>
@@ -188,9 +182,6 @@
     <t>Конденсатор 1мкф</t>
   </si>
   <si>
-    <t>Корпус РЭА №15-9 200*165*65</t>
-  </si>
-  <si>
     <t>Плата УВЧ (Preamp)</t>
   </si>
   <si>
@@ -203,42 +194,21 @@
     <t>Штекер MIC 8pin</t>
   </si>
   <si>
-    <t>Кварц 12МГц HC-49US</t>
-  </si>
-  <si>
-    <t>Конденсатор 22пф</t>
-  </si>
-  <si>
     <t>Гнездо питания 5,5*2,1</t>
   </si>
   <si>
-    <t>Мембранная клавиатура 1*4</t>
-  </si>
-  <si>
-    <t>Диод Шоттки SR860 (SB860) DO-201 60V 8A</t>
-  </si>
-  <si>
-    <t>DC-DC 4,0-38V -&gt; 1,25-36V 5A LM2596S-ADJ понижающий</t>
-  </si>
-  <si>
     <t>Кнопка питания, с фиксацией PBS-16A 220М 1A</t>
   </si>
   <si>
     <t>Оптический энкодер 600 позиций на оборот</t>
   </si>
   <si>
-    <t>Гнездо SMA на плату</t>
-  </si>
-  <si>
     <t>Переключатель TX-RX</t>
   </si>
   <si>
     <t>Модуль реле 1-канальный 5В 10A 250V/реле</t>
   </si>
   <si>
-    <t>SMA-SMA патч корд 6,5"</t>
-  </si>
-  <si>
     <t>https://ru.aliexpress.com/item/100-NEW-Original-ADT4-6WT-ADT4-6-WT-ADT4-6WT-0-5-MHz-600-MHz-RF/32764096262.html</t>
   </si>
   <si>
@@ -257,18 +227,6 @@
     <t>Итого трансивер</t>
   </si>
   <si>
-    <t>https://ru.aliexpress.com/item/45W-3-28MHz-SSB-linear-Power-Amplifier-board-DIY-Kits-for-transceiver-Radio-HF-FM-CW/32808409970.html</t>
-  </si>
-  <si>
-    <t>Усилитель 45Вт</t>
-  </si>
-  <si>
-    <t>Радиатор HS183-100 50*100*16мм</t>
-  </si>
-  <si>
-    <t>Штекер SMA на кабель RG-174</t>
-  </si>
-  <si>
     <t>Кабель RG-178 50 Ом</t>
   </si>
   <si>
@@ -278,10 +236,34 @@
     <t>Динамическая головка TRI57N-A 1Вт 8Ом</t>
   </si>
   <si>
-    <t>Транзистор BC337 TO92 NPN</t>
-  </si>
-  <si>
-    <t>Транзистор C2078</t>
+    <t>LM1117-3.3</t>
+  </si>
+  <si>
+    <t>Ферритовая бусина</t>
+  </si>
+  <si>
+    <t>Штекер MMCX на кабель</t>
+  </si>
+  <si>
+    <t>Гнездо MMCX на плату</t>
+  </si>
+  <si>
+    <t>https://ru.aliexpress.com/item/YILIANDUO-10-MMCX-LMR100/32946181371.html</t>
+  </si>
+  <si>
+    <t>https://ru.aliexpress.com/item/5-MMCX-Jack/32892212454.html</t>
+  </si>
+  <si>
+    <t>LM7805</t>
+  </si>
+  <si>
+    <t>LM7812</t>
+  </si>
+  <si>
+    <t>https://ru.aliexpress.com/item/DF2-DC12V-12-DF2-8-12VDC/32854815553.html</t>
+  </si>
+  <si>
+    <t>Реле DF2-DC12V</t>
   </si>
 </sst>
 </file>
@@ -659,7 +641,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F82"/>
+  <dimension ref="B2:F79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -687,7 +669,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
@@ -710,7 +692,7 @@
         <v>2278.73</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
@@ -724,7 +706,7 @@
         <v>182.11</v>
       </c>
       <c r="E5" s="7">
-        <f t="shared" ref="E5:E71" si="0">C5*D5</f>
+        <f t="shared" ref="E5:E74" si="0">C5*D5</f>
         <v>182.11</v>
       </c>
     </row>
@@ -748,7 +730,7 @@
         <v>707.81</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
@@ -766,7 +748,7 @@
         <v>479.67</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
@@ -784,7 +766,7 @@
         <v>714.68</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
@@ -807,199 +789,198 @@
         <v>933.21</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C12" s="5">
-        <v>1</v>
-      </c>
-      <c r="D12" s="7">
+      <c r="B12" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="7">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="F12" s="10"/>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="3" t="s">
-        <v>60</v>
-      </c>
       <c r="C13" s="5">
+        <v>1</v>
+      </c>
+      <c r="D13" s="7">
+        <v>1236.95</v>
+      </c>
+      <c r="E13" s="7">
+        <f t="shared" si="0"/>
+        <v>1236.95</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="5">
         <v>2</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D14" s="7">
+        <f>5/10</f>
+        <v>0.5</v>
+      </c>
+      <c r="E14" s="7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="5">
+        <v>2</v>
+      </c>
+      <c r="D15" s="7">
+        <f>5/10</f>
+        <v>0.5</v>
+      </c>
+      <c r="E15" s="7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="5">
+        <v>1</v>
+      </c>
+      <c r="D16" s="7">
         <f>7/5</f>
         <v>1.4</v>
       </c>
-      <c r="E13" s="7">
-        <f t="shared" si="0"/>
-        <v>2.8</v>
-      </c>
-      <c r="F13" s="10"/>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="5">
-        <v>1</v>
-      </c>
-      <c r="D15" s="7">
-        <v>1236.95</v>
-      </c>
-      <c r="E15" s="7">
-        <f t="shared" si="0"/>
-        <v>1236.95</v>
-      </c>
-      <c r="F15" s="10" t="s">
+      <c r="E16" s="7">
+        <f t="shared" si="0"/>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="5">
+        <v>1</v>
+      </c>
+      <c r="D17" s="7">
+        <v>800</v>
+      </c>
+      <c r="E17" s="7">
+        <f t="shared" si="0"/>
+        <v>800</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C16" s="5">
-        <v>2</v>
-      </c>
-      <c r="D16" s="7">
+      <c r="C19" s="5">
+        <v>1</v>
+      </c>
+      <c r="D19" s="7">
+        <v>67.5</v>
+      </c>
+      <c r="E19" s="7">
+        <f t="shared" si="0"/>
+        <v>67.5</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="5">
+        <v>1</v>
+      </c>
+      <c r="D20" s="7">
         <f>5/10</f>
         <v>0.5</v>
       </c>
-      <c r="E16" s="7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="5">
+      <c r="E20" s="7">
+        <f>C20*D20</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="5">
         <v>2</v>
       </c>
-      <c r="D17" s="7">
-        <f>5/10</f>
-        <v>0.5</v>
-      </c>
-      <c r="E17" s="7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="5">
-        <v>1</v>
-      </c>
-      <c r="D18" s="7">
+      <c r="D21" s="7">
+        <v>5</v>
+      </c>
+      <c r="E21" s="7">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="5">
+        <v>1</v>
+      </c>
+      <c r="D22" s="7">
         <f>7/5</f>
         <v>1.4</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E22" s="7">
         <f t="shared" si="0"/>
         <v>1.4</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C19" s="5">
-        <v>1</v>
-      </c>
-      <c r="D19" s="7">
-        <v>800</v>
-      </c>
-      <c r="E19" s="7">
-        <f t="shared" si="0"/>
-        <v>800</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C21" s="5">
-        <v>1</v>
-      </c>
-      <c r="D21" s="7">
-        <v>67.5</v>
-      </c>
-      <c r="E21" s="7">
-        <f t="shared" si="0"/>
-        <v>67.5</v>
-      </c>
-      <c r="F21" s="10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C22" s="5">
-        <v>1</v>
-      </c>
-      <c r="D22" s="7">
-        <f>5/10</f>
-        <v>0.5</v>
-      </c>
-      <c r="E22" s="7">
-        <f>C22*D22</f>
-        <v>0.5</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="C23" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D23" s="7">
-        <v>5</v>
+        <f>7/5</f>
+        <v>1.4</v>
       </c>
       <c r="E23" s="7">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C24" s="5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D24" s="7">
         <f>7/5</f>
         <v>1.4</v>
       </c>
       <c r="E24" s="7">
-        <f t="shared" si="0"/>
-        <v>1.4</v>
+        <f>C24*D24</f>
+        <v>8.3999999999999986</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
@@ -1007,36 +988,34 @@
         <v>32</v>
       </c>
       <c r="C25" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D25" s="7">
-        <f>7/5</f>
-        <v>1.4</v>
+        <v>6</v>
       </c>
       <c r="E25" s="7">
-        <f t="shared" si="0"/>
-        <v>2.8</v>
+        <f>C25*D25</f>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="3" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C26" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D26" s="7">
-        <f>7/5</f>
-        <v>1.4</v>
+        <v>12</v>
       </c>
       <c r="E26" s="7">
         <f>C26*D26</f>
-        <v>5.6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C27" s="5">
         <v>2</v>
@@ -1051,147 +1030,164 @@
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" s="3" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C28" s="5">
         <v>1</v>
       </c>
       <c r="D28" s="7">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="E28" s="7">
-        <f t="shared" si="0"/>
-        <v>79</v>
+        <f t="shared" ref="E28:E29" si="1">C28*D28</f>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29" s="5">
+        <v>2</v>
+      </c>
+      <c r="D29" s="7">
+        <v>17</v>
+      </c>
+      <c r="E29" s="7">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B30" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C30" s="5">
+        <v>1</v>
+      </c>
+      <c r="D30" s="7">
+        <f>73.3/5</f>
+        <v>14.66</v>
+      </c>
+      <c r="E30" s="7">
+        <f t="shared" si="0"/>
+        <v>14.66</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B31" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C31" s="5">
+        <v>1</v>
+      </c>
+      <c r="D31" s="7">
+        <f>254.5/10</f>
+        <v>25.45</v>
+      </c>
+      <c r="E31" s="7">
+        <f t="shared" si="0"/>
+        <v>25.45</v>
+      </c>
+      <c r="F31" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="C29" s="5">
-        <v>1</v>
-      </c>
-      <c r="D29" s="7">
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B32" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" s="5">
+        <v>1</v>
+      </c>
+      <c r="D32" s="7">
         <f>665/5</f>
         <v>133</v>
       </c>
-      <c r="E29" s="7">
+      <c r="E32" s="7">
         <f t="shared" si="0"/>
         <v>133</v>
       </c>
-      <c r="F29" s="10" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B30" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B31" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C31" s="5">
-        <v>1</v>
-      </c>
-      <c r="D31" s="7">
-        <v>145</v>
-      </c>
-      <c r="E31" s="7">
-        <f t="shared" si="0"/>
-        <v>145</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B32" s="1" t="s">
-        <v>16</v>
+      <c r="F32" s="10" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C33" s="5">
-        <v>1</v>
-      </c>
-      <c r="D33" s="7">
-        <v>170</v>
-      </c>
-      <c r="E33" s="7">
-        <f t="shared" si="0"/>
-        <v>170</v>
+      <c r="B33" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B34" s="3" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C34" s="5">
         <v>1</v>
       </c>
       <c r="D34" s="7">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="E34" s="7">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>55</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
-        <v>55</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B36" s="3" t="s">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="C36" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D36" s="7">
-        <f>7/5</f>
-        <v>1.4</v>
+        <v>19</v>
       </c>
       <c r="E36" s="7">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B37" s="3" t="s">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="C37" s="5">
         <v>1</v>
       </c>
       <c r="D37" s="7">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="E37" s="7">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B38" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C38" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D38" s="7">
         <v>12</v>
       </c>
       <c r="E38" s="7">
-        <f t="shared" si="0"/>
-        <v>12</v>
+        <f>C38*D38</f>
+        <v>24</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B39" s="3" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C39" s="5">
         <v>4</v>
@@ -1201,126 +1197,114 @@
         <v>1.4</v>
       </c>
       <c r="E39" s="7">
-        <f t="shared" si="0"/>
+        <f>C39*D39</f>
         <v>5.6</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B40" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C40" s="5">
-        <v>2</v>
-      </c>
-      <c r="D40" s="7">
+      <c r="B40" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B41" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C41" s="5">
+        <v>5</v>
+      </c>
+      <c r="D41" s="7">
         <f>7/5</f>
         <v>1.4</v>
       </c>
-      <c r="E40" s="7">
-        <f t="shared" si="0"/>
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B41" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C41" s="5">
-        <v>2</v>
-      </c>
-      <c r="D41" s="7">
-        <v>0.9</v>
-      </c>
       <c r="E41" s="7">
         <f t="shared" si="0"/>
-        <v>1.8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B42" s="3" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C42" s="5">
         <v>1</v>
       </c>
       <c r="D42" s="7">
-        <f>5/10</f>
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="E42" s="7">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B43" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C43" s="5">
         <v>1</v>
       </c>
       <c r="D43" s="7">
-        <f>5/10</f>
-        <v>0.5</v>
+        <v>12</v>
       </c>
       <c r="E43" s="7">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B44" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C44" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D44" s="7">
-        <v>0.9</v>
+        <f>7/5</f>
+        <v>1.4</v>
       </c>
       <c r="E44" s="7">
         <f t="shared" si="0"/>
-        <v>0.9</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B45" s="3" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C45" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D45" s="7">
-        <f>5/10</f>
-        <v>0.5</v>
+        <f>7/5</f>
+        <v>1.4</v>
       </c>
       <c r="E45" s="7">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B46" s="3" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="C46" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D46" s="7">
-        <f>5/10</f>
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="E46" s="7">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B47" s="3" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C47" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D47" s="7">
         <f>5/10</f>
@@ -1328,486 +1312,454 @@
       </c>
       <c r="E47" s="7">
         <f t="shared" si="0"/>
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B48" s="3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C48" s="5">
         <v>1</v>
       </c>
       <c r="D48" s="7">
-        <v>8</v>
+        <f>5/10</f>
+        <v>0.5</v>
       </c>
       <c r="E48" s="7">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B49" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C49" s="5">
         <v>1</v>
       </c>
       <c r="D49" s="7">
-        <v>4</v>
+        <v>0.9</v>
       </c>
       <c r="E49" s="7">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B50" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C50" s="5">
+        <v>1</v>
+      </c>
+      <c r="D50" s="7">
+        <f>5/10</f>
+        <v>0.5</v>
+      </c>
+      <c r="E50" s="7">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B51" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C51" s="5">
+        <v>1</v>
+      </c>
+      <c r="D51" s="7">
+        <f>5/10</f>
+        <v>0.5</v>
+      </c>
+      <c r="E51" s="7">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B52" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C52" s="5">
+        <v>3</v>
+      </c>
+      <c r="D52" s="7">
+        <f>5/10</f>
+        <v>0.5</v>
+      </c>
+      <c r="E52" s="7">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B53" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C53" s="5">
+        <v>1</v>
+      </c>
+      <c r="D53" s="7">
+        <v>8</v>
+      </c>
+      <c r="E53" s="7">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B54" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C54" s="5">
+        <v>1</v>
+      </c>
+      <c r="D54" s="7">
+        <v>4</v>
+      </c>
+      <c r="E54" s="7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B55" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C50" s="5">
-        <v>1</v>
-      </c>
-      <c r="D50" s="7">
+      <c r="C55" s="5">
+        <v>1</v>
+      </c>
+      <c r="D55" s="7">
         <f>129.2/10</f>
         <v>12.919999999999998</v>
       </c>
-      <c r="E50" s="7">
+      <c r="E55" s="7">
         <f t="shared" si="0"/>
         <v>12.919999999999998</v>
-      </c>
-    </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B51" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C51" s="5">
-        <v>2</v>
-      </c>
-      <c r="D51" s="7">
-        <v>11</v>
-      </c>
-      <c r="E51" s="7">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B52" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C52" s="5">
-        <v>4</v>
-      </c>
-      <c r="D52" s="7">
-        <v>6</v>
-      </c>
-      <c r="E52" s="7">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B53" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C53" s="5">
-        <v>1</v>
-      </c>
-      <c r="D53" s="7">
-        <v>150</v>
-      </c>
-      <c r="E53" s="7">
-        <f t="shared" si="0"/>
-        <v>150</v>
-      </c>
-    </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B54" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C54" s="5">
-        <v>1</v>
-      </c>
-      <c r="D54" s="7">
-        <v>4</v>
-      </c>
-      <c r="E54" s="7">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B55" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C55" s="5">
-        <v>1</v>
-      </c>
-      <c r="D55" s="7">
-        <v>46</v>
-      </c>
-      <c r="E55" s="7">
-        <f t="shared" si="0"/>
-        <v>46</v>
       </c>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B56" s="3" t="s">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="C56" s="5">
         <v>2</v>
       </c>
       <c r="D56" s="7">
-        <v>79</v>
+        <v>11</v>
       </c>
       <c r="E56" s="7">
         <f t="shared" si="0"/>
-        <v>158</v>
+        <v>22</v>
       </c>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B57" s="1" t="s">
-        <v>68</v>
+      <c r="B57" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C57" s="5">
+        <v>4</v>
+      </c>
+      <c r="D57" s="7">
+        <v>6</v>
+      </c>
+      <c r="E57" s="7">
+        <f t="shared" si="0"/>
+        <v>24</v>
       </c>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B58" s="3" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="C58" s="5">
         <v>1</v>
       </c>
       <c r="D58" s="7">
-        <v>89</v>
+        <f>207/5</f>
+        <v>41.4</v>
       </c>
       <c r="E58" s="7">
         <f t="shared" si="0"/>
-        <v>89</v>
+        <v>41.4</v>
+      </c>
+      <c r="F58" s="10" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B59" s="3" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="C59" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D59" s="7">
-        <v>79</v>
+        <v>4</v>
       </c>
       <c r="E59" s="7">
         <f t="shared" si="0"/>
-        <v>158</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B60" s="1" t="s">
-        <v>40</v>
+      <c r="B60" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C60" s="5">
+        <v>1</v>
+      </c>
+      <c r="D60" s="7">
+        <v>46</v>
+      </c>
+      <c r="E60" s="7">
+        <f t="shared" si="0"/>
+        <v>46</v>
       </c>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B61" s="3" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="C61" s="5">
         <v>1</v>
       </c>
       <c r="D61" s="7">
-        <v>79</v>
+        <f>73.3/5</f>
+        <v>14.66</v>
       </c>
       <c r="E61" s="7">
-        <f t="shared" si="0"/>
-        <v>79</v>
+        <f t="shared" ref="E61:E62" si="2">C61*D61</f>
+        <v>14.66</v>
+      </c>
+      <c r="F61" s="10" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B62" s="3" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="C62" s="5">
         <v>1</v>
       </c>
       <c r="D62" s="7">
-        <v>525</v>
+        <f>254.5/10</f>
+        <v>25.45</v>
       </c>
       <c r="E62" s="7">
-        <f t="shared" si="0"/>
-        <v>525</v>
+        <f t="shared" si="2"/>
+        <v>25.45</v>
+      </c>
+      <c r="F62" s="10" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B63" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C63" s="5">
-        <v>1</v>
-      </c>
-      <c r="D63" s="7">
-        <v>962</v>
-      </c>
-      <c r="E63" s="7">
-        <f t="shared" si="0"/>
-        <v>962</v>
-      </c>
-      <c r="F63" s="10" t="s">
-        <v>56</v>
+      <c r="B63" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B64" s="3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C64" s="5">
         <v>1</v>
       </c>
       <c r="D64" s="7">
-        <v>32</v>
+        <v>89</v>
       </c>
       <c r="E64" s="7">
         <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="F64" s="10"/>
+        <v>89</v>
+      </c>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B65" s="3" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="C65" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D65" s="7">
-        <v>45</v>
+        <f>73.3/5</f>
+        <v>14.66</v>
       </c>
       <c r="E65" s="7">
         <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="F65" s="10"/>
+        <v>29.32</v>
+      </c>
+      <c r="F65" s="10" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B66" s="3" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="C66" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D66" s="7">
-        <v>27</v>
+        <f>254.5/10</f>
+        <v>25.45</v>
       </c>
       <c r="E66" s="7">
         <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="F66" s="10"/>
+        <v>50.9</v>
+      </c>
+      <c r="F66" s="10" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B67" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C67" s="5">
-        <v>1</v>
-      </c>
-      <c r="D67" s="7">
-        <v>60</v>
-      </c>
-      <c r="E67" s="7">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="F67" s="10"/>
+      <c r="B67" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B68" s="3" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="C68" s="5">
         <v>1</v>
       </c>
       <c r="D68" s="7">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="E68" s="7">
         <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="F68" s="10"/>
+        <v>79</v>
+      </c>
     </row>
     <row r="69" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B69" s="3" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="C69" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D69" s="7">
-        <v>67</v>
+        <v>962</v>
       </c>
       <c r="E69" s="7">
         <f t="shared" si="0"/>
-        <v>201</v>
-      </c>
-      <c r="F69" s="10"/>
+        <v>962</v>
+      </c>
+      <c r="F69" s="10" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B70" s="3" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="C70" s="5">
         <v>1</v>
       </c>
       <c r="D70" s="7">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="E70" s="7">
         <f t="shared" si="0"/>
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="F70" s="10"/>
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B71" s="3" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="C71" s="5">
         <v>1</v>
       </c>
       <c r="D71" s="7">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="E71" s="7">
         <f t="shared" si="0"/>
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="F71" s="10"/>
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B72" t="s">
-        <v>78</v>
+      <c r="B72" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="C72" s="5">
         <v>1</v>
       </c>
       <c r="D72" s="7">
-        <v>963</v>
+        <v>27</v>
       </c>
       <c r="E72" s="7">
-        <f>C72*D72</f>
-        <v>963</v>
-      </c>
-      <c r="F72" s="10" t="s">
-        <v>77</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="F72" s="10"/>
     </row>
     <row r="73" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B73" s="3" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="C73" s="5">
         <v>1</v>
       </c>
       <c r="D73" s="7">
-        <v>97</v>
+        <v>35</v>
       </c>
       <c r="E73" s="7">
-        <f>C73*D73</f>
-        <v>97</v>
+        <f t="shared" si="0"/>
+        <v>35</v>
       </c>
       <c r="F73" s="10"/>
     </row>
     <row r="74" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B74" s="3" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="C74" s="5">
         <v>1</v>
       </c>
       <c r="D74" s="7">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="E74" s="7">
-        <f t="shared" ref="E74" si="1">C74*D74</f>
-        <v>6</v>
+        <f t="shared" si="0"/>
+        <v>65</v>
       </c>
       <c r="F74" s="10"/>
     </row>
     <row r="75" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B75" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C75" s="5">
+        <v>1</v>
+      </c>
+      <c r="D75" s="7">
         <v>85</v>
       </c>
-      <c r="C75" s="5">
-        <v>1</v>
-      </c>
-      <c r="D75" s="7">
-        <v>72</v>
-      </c>
       <c r="E75" s="7">
-        <f>C75*D75</f>
-        <v>72</v>
+        <f t="shared" ref="E75" si="3">C75*D75</f>
+        <v>85</v>
       </c>
       <c r="F75" s="10"/>
     </row>
     <row r="76" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B76" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C76" s="5">
-        <v>1</v>
-      </c>
-      <c r="D76" s="7">
-        <v>89</v>
-      </c>
-      <c r="E76" s="7">
-        <f>C76*D76</f>
-        <v>89</v>
-      </c>
-      <c r="F76" s="10"/>
-    </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B77" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C77" s="5">
-        <v>2</v>
-      </c>
-      <c r="D77" s="7">
-        <v>79</v>
-      </c>
-      <c r="E77" s="7">
-        <f t="shared" ref="E77:E78" si="2">C77*D77</f>
-        <v>158</v>
-      </c>
-      <c r="F77" s="10"/>
-    </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B78" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C78" s="5">
-        <v>1</v>
-      </c>
-      <c r="D78" s="7">
-        <v>85</v>
-      </c>
-      <c r="E78" s="7">
-        <f t="shared" si="2"/>
-        <v>85</v>
-      </c>
-      <c r="F78" s="10"/>
+      <c r="B76" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E76" s="8">
+        <f>SUM(E3:E75)</f>
+        <v>9543.119999999999</v>
+      </c>
     </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B79" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="E79" s="8">
-        <f>SUM(E3:E78)</f>
-        <v>12260.68</v>
-      </c>
-    </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B82" s="9"/>
+      <c r="B79" s="9"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1816,14 +1768,20 @@
     <hyperlink ref="F7" r:id="rId3"/>
     <hyperlink ref="F4" r:id="rId4"/>
     <hyperlink ref="F11" r:id="rId5"/>
-    <hyperlink ref="F15" r:id="rId6"/>
-    <hyperlink ref="F21" r:id="rId7"/>
-    <hyperlink ref="F63" r:id="rId8"/>
-    <hyperlink ref="F19" r:id="rId9"/>
-    <hyperlink ref="F29" r:id="rId10"/>
-    <hyperlink ref="F72" r:id="rId11"/>
+    <hyperlink ref="F13" r:id="rId6"/>
+    <hyperlink ref="F19" r:id="rId7"/>
+    <hyperlink ref="F69" r:id="rId8"/>
+    <hyperlink ref="F17" r:id="rId9"/>
+    <hyperlink ref="F32" r:id="rId10"/>
+    <hyperlink ref="F31" r:id="rId11"/>
+    <hyperlink ref="F30" r:id="rId12"/>
+    <hyperlink ref="F58" r:id="rId13"/>
+    <hyperlink ref="F62" r:id="rId14"/>
+    <hyperlink ref="F61" r:id="rId15"/>
+    <hyperlink ref="F66" r:id="rId16"/>
+    <hyperlink ref="F65" r:id="rId17"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId18"/>
 </worksheet>
 </file>
--- a/Scheme/Smeta.xlsx
+++ b/Scheme/Smeta.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dropbox\Develop\Projects\UA3REO\Scheme\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Develop\Projects\UA3REO\Scheme\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -257,13 +257,13 @@
     <t>LM7805</t>
   </si>
   <si>
-    <t>LM7812</t>
-  </si>
-  <si>
     <t>https://ru.aliexpress.com/item/DF2-DC12V-12-DF2-8-12VDC/32854815553.html</t>
   </si>
   <si>
     <t>Реле DF2-DC12V</t>
+  </si>
+  <si>
+    <t>Диод Шоттки SR860 (SB860) DO-201 60V 8A</t>
   </si>
 </sst>
 </file>
@@ -643,7 +643,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1142,17 +1144,17 @@
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B36" s="3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C36" s="5">
         <v>1</v>
       </c>
       <c r="D36" s="7">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E36" s="7">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
@@ -1472,7 +1474,7 @@
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B58" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C58" s="5">
         <v>1</v>
@@ -1486,7 +1488,7 @@
         <v>41.4</v>
       </c>
       <c r="F58" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.25">
@@ -1755,7 +1757,7 @@
       </c>
       <c r="E76" s="8">
         <f>SUM(E3:E75)</f>
-        <v>9543.119999999999</v>
+        <v>9542.119999999999</v>
       </c>
     </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.25">
